--- a/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/Test Excelsheet for LiCl n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/Test Excelsheet for LiCl n=4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 4\LiCl - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\LiCl - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D314AF5D-7183-40A2-8DDC-AB74E6A8622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0D49A-4D43-43C3-B707-0FC729D6808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E88A55E1-2FE1-4A75-8B73-96F5B642C0CF}"/>
   </bookViews>
@@ -508,36 +508,30 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN">
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Parity plot for</a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Fig 14. Parity plot for LiCl n=4</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0">
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> LiCl n=4</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22024560185185185"/>
+          <c:y val="0.85974375000000003"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -551,14 +545,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -569,7 +560,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14714730936392503"/>
+          <c:y val="6.2737203708421702E-2"/>
+          <c:w val="0.80670151592711514"/>
+          <c:h val="0.6285896778036536"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -960,6 +961,8 @@
         <c:axId val="1140062288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -970,22 +973,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN">
-                    <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Observed Osmotic Coefficient</a:t>
                 </a:r>
               </a:p>
@@ -1004,14 +1002,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1039,14 +1034,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1057,6 +1049,7 @@
         <c:crossAx val="1140036368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1140036368"/>
@@ -1072,33 +1065,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN">
-                    <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Experimental Osmotic</a:t>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Experimental Osmotic Coefficient</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" baseline="0">
-                    <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> Coefficient</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN">
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1115,14 +1094,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1150,14 +1126,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1210,7 +1183,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2411,34 +2389,30 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Temperature vs </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ø</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> for LiCl n=4</a:t>
+              <a:t>Fig 13. Temperature vs Ø for LiCl n=4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15876296296296299"/>
+          <c:y val="0.89865092592592599"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2452,11 +2426,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -4627,24 +4601,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4661,11 +4630,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -4692,11 +4661,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4723,11 +4692,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -4752,11 +4721,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -4783,11 +4752,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4801,7 +4770,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -4815,9 +4784,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13242903765659997"/>
-          <c:y val="0.17569320368591329"/>
-          <c:w val="0.26257392099846444"/>
+          <c:x val="0.17868819444444445"/>
+          <c:y val="0.12049930555555556"/>
+          <c:w val="0.36205300925925926"/>
           <c:h val="0.11735126609743905"/>
         </c:manualLayout>
       </c:layout>
@@ -4836,11 +4805,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -4880,7 +4849,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -20406,10 +20380,10 @@
       <xdr:rowOff>23868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>212102</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137628</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20437,15 +20411,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20460,8 +20434,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="38206680" y="2042160"/>
-          <a:ext cx="4282440" cy="2324100"/>
+          <a:off x="38252400" y="1859280"/>
+          <a:ext cx="3482340" cy="2712720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -20488,15 +20462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20511,7 +20485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38328600" y="2110740"/>
+          <a:off x="38244780" y="1844040"/>
           <a:ext cx="1234440" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20563,15 +20537,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20586,7 +20560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38465760" y="2194560"/>
+          <a:off x="38374320" y="1927860"/>
           <a:ext cx="106680" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -20626,15 +20600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20649,7 +20623,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38427660" y="2438400"/>
+          <a:off x="38351460" y="2171700"/>
           <a:ext cx="213360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -21052,16 +21026,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45180</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21502,8 +21476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6104B-C9E0-42E8-AA2A-689EB615114A}">
   <dimension ref="A1:AV60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA6" sqref="BA6"/>
+    <sheetView tabSelected="1" topLeftCell="AQ6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG23" sqref="BG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32864,7 +32838,7 @@
   <dimension ref="A1:K286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35725,23 +35699,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -35970,32 +35927,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC3A44B-2E43-454A-BBA7-EBDF5C93942F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C69340E-2751-479C-A826-08E03A5B21D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99C8A8-65B8-4C1C-AC8C-1B7793729012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36012,4 +35961,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C69340E-2751-479C-A826-08E03A5B21D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC3A44B-2E43-454A-BBA7-EBDF5C93942F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/Test Excelsheet for LiCl n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/Test Excelsheet for LiCl n=4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\LiCl - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0D49A-4D43-43C3-B707-0FC729D6808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C8701-EF34-4AB3-AEAB-40EDAA8BCF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E88A55E1-2FE1-4A75-8B73-96F5B642C0CF}"/>
   </bookViews>
@@ -577,8 +577,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Points</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -946,6 +949,163 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Parity Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet for finding Unknown LiCl'!$AX$7:$AX$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet for finding Unknown LiCl'!$AY$7:$AY$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A295-46BA-ACD6-13E9CAE53025}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -961,7 +1121,7 @@
         <c:axId val="1140062288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.5"/>
+          <c:max val="3.6"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1016,8 +1176,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1034,7 +1194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1049,12 +1209,14 @@
         <c:crossAx val="1140036368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
+        <c:majorUnit val="0.4"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1140036368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1108,8 +1270,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1126,7 +1288,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1141,6 +1303,8 @@
         <c:crossAx val="1140062288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.4"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1152,6 +1316,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14763333333333337"/>
+          <c:y val="6.4102777777777759E-2"/>
+          <c:w val="0.29315925925925929"/>
+          <c:h val="9.7096296296296292E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2849,10 +3053,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Comparision graph'!$D$3:$D$286</c:f>
+              <c:f>'Comparision graph'!$D$3:$D$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>4.0983099999999999E-4</c:v>
                 </c:pt>
@@ -3040,669 +3244,657 @@
                   <c:v>0.18601000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.18684999999999999</c:v>
+                  <c:v>0.189133</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.18754999999999999</c:v>
+                  <c:v>0.190722</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.189133</c:v>
+                  <c:v>0.19231699999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.190722</c:v>
+                  <c:v>0.19391800000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.19231699999999999</c:v>
+                  <c:v>0.195525</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.19391800000000001</c:v>
+                  <c:v>0.19713800000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.195525</c:v>
+                  <c:v>0.19875699999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.19713800000000001</c:v>
+                  <c:v>0.200382</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.19875699999999999</c:v>
+                  <c:v>0.202013</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.200382</c:v>
+                  <c:v>0.20365</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.202013</c:v>
+                  <c:v>0.205293</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.20365</c:v>
+                  <c:v>0.20694199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.205293</c:v>
+                  <c:v>0.208597</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.20694199999999999</c:v>
+                  <c:v>0.210258</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.208597</c:v>
+                  <c:v>0.211925</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.210258</c:v>
+                  <c:v>0.21359800000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.211925</c:v>
+                  <c:v>0.215278</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.21359800000000001</c:v>
+                  <c:v>0.21696299999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.215278</c:v>
+                  <c:v>0.21865399999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.21696299999999999</c:v>
+                  <c:v>0.22035099999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.21865399999999999</c:v>
+                  <c:v>0.222054</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.22035099999999999</c:v>
+                  <c:v>0.22376299999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.222054</c:v>
+                  <c:v>0.22547800000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.22376299999999999</c:v>
+                  <c:v>0.22719900000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.22547800000000001</c:v>
+                  <c:v>0.22892599999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.22719900000000001</c:v>
+                  <c:v>0.230659</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.22892599999999999</c:v>
+                  <c:v>0.23239799999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.230659</c:v>
+                  <c:v>0.23414299999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.23239799999999999</c:v>
+                  <c:v>0.23589399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.23414299999999999</c:v>
+                  <c:v>0.237651</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.23589399999999999</c:v>
+                  <c:v>0.240901</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.237651</c:v>
+                  <c:v>0.24249499999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.240901</c:v>
+                  <c:v>0.24409700000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.24249499999999999</c:v>
+                  <c:v>0.24570700000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.24409700000000001</c:v>
+                  <c:v>0.24732499999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.24570700000000001</c:v>
+                  <c:v>0.24895100000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.24732499999999999</c:v>
+                  <c:v>0.250585</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.24895100000000001</c:v>
+                  <c:v>0.25222800000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.250585</c:v>
+                  <c:v>0.25387799999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.25222800000000001</c:v>
+                  <c:v>0.25553599999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.25387799999999999</c:v>
+                  <c:v>0.25720199999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.25553599999999999</c:v>
+                  <c:v>0.258876</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.25720199999999999</c:v>
+                  <c:v>0.26055800000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.258876</c:v>
+                  <c:v>0.26224799999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.26055800000000001</c:v>
+                  <c:v>0.26394600000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.26224799999999998</c:v>
+                  <c:v>0.265652</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.26394600000000001</c:v>
+                  <c:v>0.26736599999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.265652</c:v>
+                  <c:v>0.26908799999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.26736599999999999</c:v>
+                  <c:v>0.270818</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.26908799999999999</c:v>
+                  <c:v>0.27255600000000002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.270818</c:v>
+                  <c:v>0.27430199999999999</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.27255600000000002</c:v>
+                  <c:v>0.27605600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.27430199999999999</c:v>
+                  <c:v>0.27781800000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.27605600000000002</c:v>
+                  <c:v>0.279588</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.27781800000000001</c:v>
+                  <c:v>0.281366</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.279588</c:v>
+                  <c:v>0.28315200000000001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.281366</c:v>
+                  <c:v>0.28494599999999998</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.28315200000000001</c:v>
+                  <c:v>0.28855799999999998</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.28494599999999998</c:v>
+                  <c:v>0.29220200000000002</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.28855799999999998</c:v>
+                  <c:v>0.29587799999999997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.29180400000000001</c:v>
+                  <c:v>0.29772799999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.29220200000000002</c:v>
+                  <c:v>0.30332599999999998</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.29587799999999997</c:v>
+                  <c:v>0.30520799999999998</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.29772799999999999</c:v>
+                  <c:v>0.30709799999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.29958600000000002</c:v>
+                  <c:v>0.30899599999999999</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.30332599999999998</c:v>
+                  <c:v>0.31090200000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.30520799999999998</c:v>
+                  <c:v>0.31281500000000001</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.30709799999999998</c:v>
+                  <c:v>0.31473699999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.30899599999999999</c:v>
+                  <c:v>0.31860500000000003</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.31090200000000001</c:v>
+                  <c:v>0.32055099999999997</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.31281500000000001</c:v>
+                  <c:v>0.32250499999999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.31473699999999999</c:v>
+                  <c:v>0.32446700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.31860500000000003</c:v>
+                  <c:v>0.32643699999999998</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.32055099999999997</c:v>
+                  <c:v>0.32841500000000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.32250499999999999</c:v>
+                  <c:v>0.330401</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.32446700000000001</c:v>
+                  <c:v>0.332395</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.32643699999999998</c:v>
+                  <c:v>0.334397</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.32841500000000001</c:v>
+                  <c:v>0.33640700000000001</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.330401</c:v>
+                  <c:v>0.33842499999999998</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.332395</c:v>
+                  <c:v>0.340451</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.334397</c:v>
+                  <c:v>0.34248499999999998</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.33640700000000001</c:v>
+                  <c:v>0.34452700000000003</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.33842499999999998</c:v>
+                  <c:v>0.34657700000000002</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.340451</c:v>
+                  <c:v>0.34863499999999997</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.34248499999999998</c:v>
+                  <c:v>0.35070099999999998</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.34452700000000003</c:v>
+                  <c:v>0.35277500000000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.34657700000000002</c:v>
+                  <c:v>0.35485699999999998</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.34863499999999997</c:v>
+                  <c:v>0.35694700000000001</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.35070099999999998</c:v>
+                  <c:v>0.359045</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.35277500000000001</c:v>
+                  <c:v>0.361151</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.35485699999999998</c:v>
+                  <c:v>0.363265</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.35694700000000001</c:v>
+                  <c:v>0.36538700000000002</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.359045</c:v>
+                  <c:v>0.36751699999999998</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.361151</c:v>
+                  <c:v>0.36965399999999998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.363265</c:v>
+                  <c:v>0.37180000000000002</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.36538700000000002</c:v>
+                  <c:v>0.37395400000000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.36751699999999998</c:v>
+                  <c:v>0.37611600000000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.36965399999999998</c:v>
+                  <c:v>0.37828600000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.37180000000000002</c:v>
+                  <c:v>0.38046400000000002</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.37395400000000001</c:v>
+                  <c:v>0.38264999999999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.37611600000000001</c:v>
+                  <c:v>0.38484400000000002</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.37828600000000001</c:v>
+                  <c:v>0.387046</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.38046400000000002</c:v>
+                  <c:v>0.38925599999999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.38264999999999999</c:v>
+                  <c:v>0.39147399999999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.38484400000000002</c:v>
+                  <c:v>0.39369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.387046</c:v>
+                  <c:v>0.39593400000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.38925599999999999</c:v>
+                  <c:v>0.39817599999999997</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.39147399999999999</c:v>
+                  <c:v>0.39817599999999997</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.39369999999999999</c:v>
+                  <c:v>0.400426</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.39593400000000001</c:v>
+                  <c:v>0.40268399999999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.39817599999999997</c:v>
+                  <c:v>0.404949</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.39817599999999997</c:v>
+                  <c:v>0.407223</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.400426</c:v>
+                  <c:v>0.40950500000000001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.40268399999999999</c:v>
+                  <c:v>0.41179500000000002</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.404949</c:v>
+                  <c:v>0.41409299999999999</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.407223</c:v>
+                  <c:v>0.41639900000000002</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.40950500000000001</c:v>
+                  <c:v>0.418713</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.41179500000000002</c:v>
+                  <c:v>0.41875899999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.41409299999999999</c:v>
+                  <c:v>0.41993599999999998</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.41639900000000002</c:v>
+                  <c:v>0.42103499999999999</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.418713</c:v>
+                  <c:v>0.42111100000000001</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.41875899999999999</c:v>
+                  <c:v>0.42228500000000002</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.41993599999999998</c:v>
+                  <c:v>0.42336499999999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.42103499999999999</c:v>
+                  <c:v>0.423456</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.42111100000000001</c:v>
+                  <c:v>0.424626</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.42228500000000002</c:v>
+                  <c:v>0.425703</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.42336499999999999</c:v>
+                  <c:v>0.42579400000000001</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.423456</c:v>
+                  <c:v>0.42696000000000001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.424626</c:v>
+                  <c:v>0.42804900000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.425703</c:v>
+                  <c:v>0.42812499999999998</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.42579400000000001</c:v>
+                  <c:v>0.429288</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.42696000000000001</c:v>
+                  <c:v>0.430448</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.42804900000000001</c:v>
+                  <c:v>0.43160700000000002</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.42812499999999998</c:v>
+                  <c:v>0.43276500000000001</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.429288</c:v>
+                  <c:v>0.43391999999999997</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.430448</c:v>
+                  <c:v>0.43507400000000002</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.43160700000000002</c:v>
+                  <c:v>0.436226</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.43276500000000001</c:v>
+                  <c:v>0.43737599999999999</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.43391999999999997</c:v>
+                  <c:v>0.43852400000000002</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.43507400000000002</c:v>
+                  <c:v>0.43967000000000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.436226</c:v>
+                  <c:v>0.44081500000000001</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.43737599999999999</c:v>
+                  <c:v>0.44195800000000002</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.43852400000000002</c:v>
+                  <c:v>0.44309900000000002</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.43967000000000001</c:v>
+                  <c:v>0.44423800000000002</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.44081500000000001</c:v>
+                  <c:v>0.44537599999999999</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.44195800000000002</c:v>
+                  <c:v>0.44651099999999999</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.44309900000000002</c:v>
+                  <c:v>0.44764500000000002</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.44423800000000002</c:v>
+                  <c:v>0.44877699999999998</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.44537599999999999</c:v>
+                  <c:v>0.449907</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.44651099999999999</c:v>
+                  <c:v>0.45103599999999999</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.44764500000000002</c:v>
+                  <c:v>0.45216200000000001</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.44877699999999998</c:v>
+                  <c:v>0.453287</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.449907</c:v>
+                  <c:v>0.45440999999999998</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.45103599999999999</c:v>
+                  <c:v>0.45665099999999997</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.45216200000000001</c:v>
+                  <c:v>0.45743899999999998</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.453287</c:v>
+                  <c:v>0.45776899999999998</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.45440999999999998</c:v>
+                  <c:v>0.45888400000000001</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.45665099999999997</c:v>
+                  <c:v>0.45932200000000001</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.45743899999999998</c:v>
+                  <c:v>0.45999800000000002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.45776899999999998</c:v>
+                  <c:v>0.46121899999999999</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.45888400000000001</c:v>
+                  <c:v>0.46222099999999999</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.45932200000000001</c:v>
+                  <c:v>0.46312999999999999</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.45999800000000002</c:v>
+                  <c:v>0.465055</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.46121899999999999</c:v>
+                  <c:v>0.46699299999999999</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.46222099999999999</c:v>
+                  <c:v>0.46894599999999997</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.46312999999999999</c:v>
+                  <c:v>0.47091300000000003</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.465055</c:v>
+                  <c:v>0.47289399999999998</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.46699299999999999</c:v>
+                  <c:v>0.47488900000000001</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.46894599999999997</c:v>
+                  <c:v>0.47689799999999999</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.47091300000000003</c:v>
+                  <c:v>0.47892000000000001</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.47289399999999998</c:v>
+                  <c:v>0.48095700000000002</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.47488900000000001</c:v>
+                  <c:v>0.48300799999999999</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.47689799999999999</c:v>
+                  <c:v>0.48507299999999998</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.47892000000000001</c:v>
+                  <c:v>0.48715199999999997</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.48095700000000002</c:v>
+                  <c:v>0.48924400000000001</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.48300799999999999</c:v>
+                  <c:v>0.49135099999999998</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.48507299999999998</c:v>
+                  <c:v>0.49347200000000002</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.48715199999999997</c:v>
+                  <c:v>0.49560700000000002</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.48924400000000001</c:v>
+                  <c:v>0.497755</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.49135099999999998</c:v>
+                  <c:v>0.49991799999999997</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.49347200000000002</c:v>
+                  <c:v>0.50209499999999996</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.49560700000000002</c:v>
+                  <c:v>0.50428499999999998</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.497755</c:v>
+                  <c:v>0.50649</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.49991799999999997</c:v>
+                  <c:v>0.50870899999999997</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.50209499999999996</c:v>
+                  <c:v>0.51094099999999998</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.50428499999999998</c:v>
+                  <c:v>0.51318799999999998</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.50649</c:v>
+                  <c:v>0.51544800000000002</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.50870899999999997</c:v>
+                  <c:v>0.51772200000000002</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.51094099999999998</c:v>
+                  <c:v>0.520011</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.51318799999999998</c:v>
+                  <c:v>0.52231300000000003</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.51544800000000002</c:v>
+                  <c:v>0.529914</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.51772200000000002</c:v>
+                  <c:v>0.53017800000000004</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.520011</c:v>
+                  <c:v>0.53045299999999995</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.52231300000000003</c:v>
+                  <c:v>0.53073800000000004</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.529914</c:v>
+                  <c:v>0.53103299999999998</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.53017800000000004</c:v>
+                  <c:v>0.53133799999999998</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.53045299999999995</c:v>
+                  <c:v>0.53165300000000004</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.53073800000000004</c:v>
+                  <c:v>0.53197700000000003</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.53103299999999998</c:v>
+                  <c:v>0.53231200000000001</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.53133799999999998</c:v>
+                  <c:v>0.53265700000000005</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0.53165300000000004</c:v>
+                  <c:v>0.53301200000000004</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0.53197700000000003</c:v>
+                  <c:v>0.53337599999999996</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0.53231200000000001</c:v>
+                  <c:v>0.53375099999999998</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0.53265700000000005</c:v>
+                  <c:v>0.53413600000000006</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0.53301200000000004</c:v>
+                  <c:v>0.53452999999999995</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0.53337599999999996</c:v>
+                  <c:v>0.53577399999999997</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0.53375099999999998</c:v>
+                  <c:v>0.53620900000000005</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0.53413600000000006</c:v>
+                  <c:v>0.53665300000000005</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0.53452999999999995</c:v>
+                  <c:v>0.53710800000000003</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0.53577399999999997</c:v>
+                  <c:v>0.53757200000000005</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0.53620900000000005</c:v>
+                  <c:v>0.53804700000000005</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0.53665300000000005</c:v>
+                  <c:v>0.53853099999999998</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0.53710800000000003</c:v>
+                  <c:v>0.53952999999999995</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0.53757200000000005</c:v>
+                  <c:v>0.54004399999999997</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0.53804700000000005</c:v>
+                  <c:v>0.54056800000000005</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0.53853099999999998</c:v>
+                  <c:v>0.54164699999999999</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0.53952999999999995</c:v>
+                  <c:v>0.54220100000000004</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0.54004399999999997</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0.54056800000000005</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0.54164699999999999</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0.54220100000000004</c:v>
-                </c:pt>
-                <c:pt idx="283">
                   <c:v>0.54276500000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -3710,10 +3902,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Comparision graph'!$E$3:$E$286</c:f>
+              <c:f>'Comparision graph'!$E$3:$E$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>274</c:v>
                 </c:pt>
@@ -3901,669 +4093,657 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>218</c:v>
-                </c:pt>
                 <c:pt idx="118">
-                  <c:v>219</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>220</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>221</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>223</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>237</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>225</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>227</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>228</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>229</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>230</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>231</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>232</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>233</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>234</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>235</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>236</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>238</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>239</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>240</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>241</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>242</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>243</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>244</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>245</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>246</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>247</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>248</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>249</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>250</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>251</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>252</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>253</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>254</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>255</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>256</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>257</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>258</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>259</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>260</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>261</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>262</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>263</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>264</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>265</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>266</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>267</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>268</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>269</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>270</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>271</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>272</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>274</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>275</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>276</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>277</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>278</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>279</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>280</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>281</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>282</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>283</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>284</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>285</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>286</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="183">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="184">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>295</c:v>
-                </c:pt>
                 <c:pt idx="191">
-                  <c:v>289</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>296</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>297</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>290</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>298</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>299</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>300</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>301</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>302</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>303</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>304</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>305</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>306</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>307</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>308</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>309</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>310</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>311</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>312</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>313</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>314</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>315</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>316</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>317</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>318</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>319</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>320</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>321</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>323</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>334</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>324</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>325</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>335</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>326</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>336</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>328</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>337</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>338</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>339</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>340</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>341</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>342</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>343</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>344</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>345</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>346</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>347</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>348</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>349</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>350</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>351</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>352</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>353</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>354</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>355</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>356</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>357</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>358</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>359</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>360</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>361</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>362</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>363</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>364</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>365</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>366</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>367</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>368</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>369</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>370</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>371</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>372</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>373</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>374</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>375</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>376</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>377</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>378</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>379</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>380</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>383</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>384</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>385</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>386</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>387</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>388</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>389</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>391</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="283">
                   <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
@@ -4612,8 +4792,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>Ø</a:t>
+                  <a:t>Volume</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Fraction</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4644,8 +4829,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4676,12 +4861,14 @@
         <c:crossAx val="2111475280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2111475280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500"/>
+          <c:max val="440"/>
+          <c:min val="160"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4735,8 +4922,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4767,6 +4954,8 @@
         <c:crossAx val="1709988112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="40"/>
+        <c:minorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -20374,16 +20563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>159302</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23868</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>342182</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>404868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>212102</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>137628</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>394982</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20406,245 +20595,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233369FA-CE05-732C-1796-36A5F0DECE88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="38252400" y="1859280"/>
-          <a:ext cx="3482340" cy="2712720"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7FE805-4741-4A5A-A6E3-3C1E9D0EB707}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38244780" y="1844040"/>
-          <a:ext cx="1234440" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>         Data Points</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
-            <a:t>         Parity Line</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Flowchart: Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07FEF03-0F1F-4A59-B764-FCC1DF264354}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38374320" y="1927860"/>
-          <a:ext cx="106680" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0F8A6D-CF17-4B23-B600-CF467EDB0371}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38351460" y="2171700"/>
-          <a:ext cx="213360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21474,10 +21424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6104B-C9E0-42E8-AA2A-689EB615114A}">
-  <dimension ref="A1:AV60"/>
+  <dimension ref="A1:AY60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG23" sqref="BG23"/>
+    <sheetView tabSelected="1" topLeftCell="AV4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BM13" sqref="BM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21512,7 +21462,7 @@
     <col min="45" max="45" width="13.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
@@ -21531,7 +21481,7 @@
       <c r="AH1"/>
       <c r="AM1"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I2"/>
       <c r="L2" s="4" t="s">
         <v>0</v>
@@ -21554,7 +21504,7 @@
       <c r="AH2" s="3"/>
       <c r="AM2"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I3"/>
       <c r="L3" s="4" t="s">
         <v>1</v>
@@ -21577,7 +21527,7 @@
       <c r="AH3" s="3"/>
       <c r="AM3"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I4"/>
       <c r="S4"/>
       <c r="W4"/>
@@ -21594,7 +21544,7 @@
       <c r="AH4" s="3"/>
       <c r="AM4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I5"/>
       <c r="S5"/>
       <c r="W5"/>
@@ -21604,7 +21554,7 @@
       <c r="AM5"/>
       <c r="AO5" s="5"/>
     </row>
-    <row r="6" spans="1:48" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -21683,7 +21633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1.0207999999999999</v>
       </c>
@@ -21830,8 +21780,14 @@
         <f>AS7</f>
         <v>1.0198</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1.0208999999999999</v>
       </c>
@@ -21974,8 +21930,16 @@
         <f t="shared" ref="AV8:AV60" si="30">AS8</f>
         <v>1.0125</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX8">
+        <f>AX7+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="AY8">
+        <f>AY7+0.2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1.0212000000000001</v>
       </c>
@@ -22124,8 +22088,16 @@
         <f t="shared" si="30"/>
         <v>1.0108999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX9">
+        <f t="shared" ref="AX9:AY30" si="31">AX8+0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="31"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1.0215000000000001</v>
       </c>
@@ -22274,8 +22246,16 @@
         <f t="shared" si="30"/>
         <v>0.99209999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX10">
+        <f t="shared" si="31"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="31"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1.0218</v>
       </c>
@@ -22424,8 +22404,16 @@
         <f t="shared" si="30"/>
         <v>0.98750000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX11">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1.0226999999999999</v>
       </c>
@@ -22574,8 +22562,16 @@
         <f t="shared" si="30"/>
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX12">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1.0238</v>
       </c>
@@ -22724,8 +22720,16 @@
         <f t="shared" si="30"/>
         <v>0.97399999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX13">
+        <f t="shared" si="31"/>
+        <v>1.2</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="31"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2.1970000000000001</v>
       </c>
@@ -22874,8 +22878,16 @@
         <f t="shared" si="30"/>
         <v>1.1685000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX14">
+        <f t="shared" si="31"/>
+        <v>1.4</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="31"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2.1970000000000001</v>
       </c>
@@ -23024,8 +23036,16 @@
         <f t="shared" si="30"/>
         <v>1.1579999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX15">
+        <f t="shared" si="31"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="31"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2.198</v>
       </c>
@@ -23174,8 +23194,16 @@
         <f t="shared" si="30"/>
         <v>1.1493</v>
       </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX16">
+        <f t="shared" si="31"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="31"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2.198</v>
       </c>
@@ -23324,8 +23352,16 @@
         <f t="shared" si="30"/>
         <v>1.1323000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX17">
+        <f t="shared" si="31"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="31"/>
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2.1989999999999998</v>
       </c>
@@ -23474,8 +23510,16 @@
         <f t="shared" si="30"/>
         <v>1.1226</v>
       </c>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX18">
+        <f t="shared" si="31"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="31"/>
+        <v>2.1999999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2.2010000000000001</v>
       </c>
@@ -23624,8 +23668,16 @@
         <f t="shared" si="30"/>
         <v>1.1117999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX19">
+        <f t="shared" si="31"/>
+        <v>2.4</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="31"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2.202</v>
       </c>
@@ -23774,8 +23826,16 @@
         <f t="shared" si="30"/>
         <v>1.0942000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX20">
+        <f t="shared" si="31"/>
+        <v>2.6</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="31"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3.94</v>
       </c>
@@ -23924,8 +23984,16 @@
         <f t="shared" si="30"/>
         <v>1.4350000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX21">
+        <f t="shared" si="31"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="31"/>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3.94</v>
       </c>
@@ -24074,8 +24142,16 @@
         <f t="shared" si="30"/>
         <v>1.4131</v>
       </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX22">
+        <f t="shared" si="31"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="31"/>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3.9420000000000002</v>
       </c>
@@ -24224,8 +24300,16 @@
         <f t="shared" si="30"/>
         <v>1.3695999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX23">
+        <f t="shared" si="31"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="31"/>
+        <v>3.2000000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3.944</v>
       </c>
@@ -24368,8 +24452,16 @@
         <f t="shared" si="30"/>
         <v>1.3434999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX24">
+        <f t="shared" si="31"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="31"/>
+        <v>3.4000000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3.9460000000000002</v>
       </c>
@@ -24512,8 +24604,15 @@
         <f t="shared" si="30"/>
         <v>1.3196000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX25">
+        <f t="shared" si="31"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="AY25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>3.95</v>
       </c>
@@ -24656,8 +24755,12 @@
         <f t="shared" si="30"/>
         <v>1.3148</v>
       </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX26">
+        <f t="shared" si="31"/>
+        <v>3.8000000000000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>6.3689999999999998</v>
       </c>
@@ -24800,8 +24903,12 @@
         <f t="shared" si="30"/>
         <v>1.8464</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX27">
+        <f t="shared" si="31"/>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>6.37</v>
       </c>
@@ -24944,8 +25051,12 @@
         <f t="shared" si="30"/>
         <v>1.8107</v>
       </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX28">
+        <f t="shared" si="31"/>
+        <v>4.2000000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>6.3710000000000004</v>
       </c>
@@ -25088,8 +25199,12 @@
         <f t="shared" si="30"/>
         <v>1.7683</v>
       </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX29">
+        <f t="shared" si="31"/>
+        <v>4.4000000000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>6.3719999999999999</v>
       </c>
@@ -25232,8 +25347,12 @@
         <f t="shared" si="30"/>
         <v>1.7264999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX30">
+        <f t="shared" si="31"/>
+        <v>4.6000000000000014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>6.375</v>
       </c>
@@ -25377,7 +25496,7 @@
         <v>1.6847000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>6.3789999999999996</v>
       </c>
@@ -26400,14 +26519,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" ref="E39:E60" si="31">D39*A39</f>
+        <f t="shared" ref="E39:E60" si="32">D39*A39</f>
         <v>314.47869199999997</v>
       </c>
       <c r="F39" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G60" si="32">1/C39</f>
+        <f t="shared" ref="G39:G60" si="33">1/C39</f>
         <v>2.772771384999307E-3</v>
       </c>
       <c r="H39">
@@ -26419,7 +26538,7 @@
         <v>133.524</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" ref="K39:K60" si="33">A39</f>
+        <f t="shared" ref="K39:K60" si="34">A39</f>
         <v>7.4180000000000001</v>
       </c>
       <c r="L39" s="3">
@@ -26506,7 +26625,7 @@
         <v>-474.4547894755442</v>
       </c>
       <c r="AO39" s="3">
-        <f t="shared" ref="AO39:AO60" si="34">-AS39*A39*18*2</f>
+        <f t="shared" ref="AO39:AO60" si="35">-AS39*A39*18*2</f>
         <v>-476.25340320000004</v>
       </c>
       <c r="AP39" s="3">
@@ -26544,14 +26663,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>314.73305599999998</v>
       </c>
       <c r="F40" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.6798874447273215E-3</v>
       </c>
       <c r="H40">
@@ -26563,7 +26682,7 @@
         <v>133.63200000000001</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>7.4240000000000004</v>
       </c>
       <c r="L40" s="3">
@@ -26650,7 +26769,7 @@
         <v>-462.31633075695936</v>
       </c>
       <c r="AO40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-464.37120000000004</v>
       </c>
       <c r="AP40" s="3">
@@ -26688,14 +26807,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>360.00984800000003</v>
       </c>
       <c r="F41" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.3540164346805303E-3</v>
       </c>
       <c r="H41">
@@ -26707,7 +26826,7 @@
         <v>152.85600000000002</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.4920000000000009</v>
       </c>
       <c r="L41" s="3">
@@ -26794,7 +26913,7 @@
         <v>-684.62119992637781</v>
       </c>
       <c r="AO41" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-677.4272208000001</v>
       </c>
       <c r="AP41" s="3">
@@ -26832,14 +26951,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>360.05224199999998</v>
       </c>
       <c r="F42" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.2190568163528088E-3</v>
       </c>
       <c r="H42">
@@ -26851,7 +26970,7 @@
         <v>152.874</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.4930000000000003</v>
       </c>
       <c r="L42" s="3">
@@ -26938,7 +27057,7 @@
         <v>-663.89603069948771</v>
       </c>
       <c r="AO42" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-659.65131000000008</v>
       </c>
       <c r="AP42" s="3">
@@ -26976,14 +27095,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>360.09463599999998</v>
       </c>
       <c r="F43" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.0945381401825778E-3</v>
       </c>
       <c r="H43">
@@ -26995,7 +27114,7 @@
         <v>152.892</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.4939999999999998</v>
       </c>
       <c r="L43" s="3">
@@ -27082,7 +27201,7 @@
         <v>-643.98326525886068</v>
       </c>
       <c r="AO43" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-640.86210719999997</v>
       </c>
       <c r="AP43" s="3">
@@ -27120,14 +27239,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>360.13702999999992</v>
       </c>
       <c r="F44" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.9792939073439596E-3</v>
       </c>
       <c r="H44">
@@ -27139,7 +27258,7 @@
         <v>152.91</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.4949999999999992</v>
       </c>
       <c r="L44" s="3">
@@ -27226,7 +27345,7 @@
         <v>-624.82102475574129</v>
       </c>
       <c r="AO44" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-623.62814400000002</v>
       </c>
       <c r="AP44" s="3">
@@ -27264,14 +27383,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>360.26421199999993</v>
       </c>
       <c r="F45" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.8723251472066642E-3</v>
       </c>
       <c r="H45">
@@ -27283,7 +27402,7 @@
         <v>152.964</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.4979999999999993</v>
       </c>
       <c r="L45" s="3">
@@ -27370,7 +27489,7 @@
         <v>-606.58060698335885</v>
       </c>
       <c r="AO45" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-604.81965600000001</v>
       </c>
       <c r="AP45" s="3">
@@ -27408,14 +27527,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>360.43378799999999</v>
       </c>
       <c r="F46" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.772771384999307E-3</v>
       </c>
       <c r="H46">
@@ -27427,7 +27546,7 @@
         <v>153.036</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5020000000000007</v>
       </c>
       <c r="L46" s="3">
@@ -27514,7 +27633,7 @@
         <v>-589.07643348561942</v>
       </c>
       <c r="AO46" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-587.8418832000001</v>
       </c>
       <c r="AP46" s="3">
@@ -27552,14 +27671,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>360.68815199999995</v>
       </c>
       <c r="F47" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.6798874447273215E-3</v>
       </c>
       <c r="H47">
@@ -27571,7 +27690,7 @@
         <v>153.14399999999998</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5079999999999991</v>
       </c>
       <c r="L47" s="3">
@@ -27658,7 +27777,7 @@
         <v>-572.35594173982736</v>
       </c>
       <c r="AO47" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-572.17661279999993</v>
       </c>
       <c r="AP47" s="3">
@@ -27696,14 +27815,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>489.05718399999995</v>
       </c>
       <c r="F48" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.3540164346805303E-3</v>
       </c>
       <c r="H48">
@@ -27715,7 +27834,7 @@
         <v>207.648</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11.536</v>
       </c>
       <c r="L48" s="3">
@@ -27802,7 +27921,7 @@
         <v>-1102.4408868409928</v>
       </c>
       <c r="AO48" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1105.9332479999998</v>
       </c>
       <c r="AP48" s="3">
@@ -27840,14 +27959,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>489.09957800000001</v>
       </c>
       <c r="F49" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.2190568163528088E-3</v>
       </c>
       <c r="H49">
@@ -27859,7 +27978,7 @@
         <v>207.66600000000003</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11.537000000000001</v>
       </c>
       <c r="L49" s="3">
@@ -27946,7 +28065,7 @@
         <v>-1063.449669873602</v>
       </c>
       <c r="AO49" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1069.8952320000001</v>
       </c>
       <c r="AP49" s="3">
@@ -27984,14 +28103,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>489.31154799999996</v>
       </c>
       <c r="F50" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.9792939073439596E-3</v>
       </c>
       <c r="H50">
@@ -28003,7 +28122,7 @@
         <v>207.756</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11.542</v>
       </c>
       <c r="L50" s="3">
@@ -28090,7 +28209,7 @@
         <v>-990.29708951143857</v>
       </c>
       <c r="AO50" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-994.32021599999985</v>
       </c>
       <c r="AP50" s="3">
@@ -28128,14 +28247,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>489.48112399999997</v>
       </c>
       <c r="F51" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.8723251472066642E-3</v>
       </c>
       <c r="H51">
@@ -28147,7 +28266,7 @@
         <v>207.82799999999997</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11.545999999999999</v>
       </c>
       <c r="L51" s="3">
@@ -28234,7 +28353,7 @@
         <v>-955.88071281253906</v>
       </c>
       <c r="AO51" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-958.91839199999993</v>
       </c>
       <c r="AP51" s="3">
@@ -28272,14 +28391,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>488.93000199999994</v>
       </c>
       <c r="F52" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.772771384999307E-3</v>
       </c>
       <c r="H52">
@@ -28291,7 +28410,7 @@
         <v>207.59399999999999</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11.532999999999999</v>
       </c>
       <c r="L52" s="3">
@@ -28378,7 +28497,7 @@
         <v>-920.84131685385455</v>
       </c>
       <c r="AO52" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-919.64141999999993</v>
       </c>
       <c r="AP52" s="3">
@@ -28416,14 +28535,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>490.15942799999993</v>
       </c>
       <c r="F53" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.6798874447273215E-3</v>
       </c>
       <c r="H53">
@@ -28435,7 +28554,7 @@
         <v>208.11599999999999</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11.561999999999999</v>
       </c>
       <c r="L53" s="3">
@@ -28522,7 +28641,7 @@
         <v>-891.32892451012594</v>
       </c>
       <c r="AO53" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-885.74169600000005</v>
       </c>
       <c r="AP53" s="3">
@@ -28560,14 +28679,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>786.06954800000005</v>
       </c>
       <c r="F54" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.3540164346805303E-3</v>
       </c>
       <c r="H54">
@@ -28579,7 +28698,7 @@
         <v>333.75600000000003</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18.542000000000002</v>
       </c>
       <c r="L54" s="3">
@@ -28666,7 +28785,7 @@
         <v>-2036.7248969143093</v>
       </c>
       <c r="AO54" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2038.5816480000001</v>
       </c>
       <c r="AP54" s="3">
@@ -28704,14 +28823,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>786.15433599999994</v>
       </c>
       <c r="F55" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.2190568163528088E-3</v>
       </c>
       <c r="H55">
@@ -28723,7 +28842,7 @@
         <v>333.79200000000003</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18.544</v>
       </c>
       <c r="L55" s="3">
@@ -28810,7 +28929,7 @@
         <v>-1947.3304591665274</v>
       </c>
       <c r="AO55" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1943.3370240000002</v>
       </c>
       <c r="AP55" s="3">
@@ -28848,14 +28967,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>786.32391199999995</v>
       </c>
       <c r="F56" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.0945381401825778E-3</v>
       </c>
       <c r="H56">
@@ -28867,7 +28986,7 @@
         <v>333.86399999999998</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18.547999999999998</v>
       </c>
       <c r="L56" s="3">
@@ -28954,7 +29073,7 @@
         <v>-1861.7122487872457</v>
       </c>
       <c r="AO56" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1858.9547519999996</v>
       </c>
       <c r="AP56" s="3">
@@ -28992,14 +29111,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>786.4510939999999</v>
       </c>
       <c r="F57" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.9792939073439596E-3</v>
       </c>
       <c r="H57">
@@ -29011,7 +29130,7 @@
         <v>333.91799999999995</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18.550999999999998</v>
       </c>
       <c r="L57" s="3">
@@ -29098,7 +29217,7 @@
         <v>-1779.180735164724</v>
       </c>
       <c r="AO57" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1775.7759239999998</v>
       </c>
       <c r="AP57" s="3">
@@ -29136,14 +29255,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>786.79024600000002</v>
       </c>
       <c r="F58" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.8723251472066642E-3</v>
       </c>
       <c r="H58">
@@ -29155,7 +29274,7 @@
         <v>334.06200000000001</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18.559000000000001</v>
       </c>
       <c r="L58" s="3">
@@ -29242,7 +29361,7 @@
         <v>-1700.2398145692587</v>
       </c>
       <c r="AO58" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1698.371208</v>
       </c>
       <c r="AP58" s="3">
@@ -29280,14 +29399,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>787.25657999999999</v>
       </c>
       <c r="F59" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.772771384999307E-3</v>
       </c>
       <c r="H59">
@@ -29299,7 +29418,7 @@
         <v>334.26</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18.57</v>
       </c>
       <c r="L59" s="3">
@@ -29386,7 +29505,7 @@
         <v>-1624.3530146722733</v>
       </c>
       <c r="AO59" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1624.5036</v>
       </c>
       <c r="AP59" s="3">
@@ -29424,14 +29543,14 @@
         <v>42.393999999999998</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>787.89248999999995</v>
       </c>
       <c r="F60" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.6798874447273215E-3</v>
       </c>
       <c r="H60">
@@ -29443,7 +29562,7 @@
         <v>334.53000000000003</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18.585000000000001</v>
       </c>
       <c r="L60" s="3">
@@ -29530,7 +29649,7 @@
         <v>-1551.384604196408</v>
       </c>
       <c r="AO60" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1554.8954399999998</v>
       </c>
       <c r="AP60" s="3">
@@ -32835,10 +32954,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782205F6-3FFD-4338-A2A5-04E9D62A3720}">
-  <dimension ref="A1:K286"/>
+  <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33681,2017 +33800,1985 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65">
-        <v>0.18684999999999999</v>
+        <v>0.189133</v>
       </c>
       <c r="E65">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66">
-        <v>0.18754999999999999</v>
+        <v>0.190722</v>
       </c>
       <c r="E66">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67">
-        <v>0.189133</v>
+        <v>0.19231699999999999</v>
       </c>
       <c r="E67">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68">
-        <v>0.190722</v>
+        <v>0.19391800000000001</v>
       </c>
       <c r="E68">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D69">
-        <v>0.19231699999999999</v>
+        <v>0.195525</v>
       </c>
       <c r="E69">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D70">
-        <v>0.19391800000000001</v>
+        <v>0.19713800000000001</v>
       </c>
       <c r="E70">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D71">
-        <v>0.195525</v>
+        <v>0.19875699999999999</v>
       </c>
       <c r="E71">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D72">
-        <v>0.19713800000000001</v>
+        <v>0.200382</v>
       </c>
       <c r="E72">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D73">
-        <v>0.19875699999999999</v>
+        <v>0.202013</v>
       </c>
       <c r="E73">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D74">
-        <v>0.200382</v>
+        <v>0.20365</v>
       </c>
       <c r="E74">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D75">
-        <v>0.202013</v>
+        <v>0.205293</v>
       </c>
       <c r="E75">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D76">
-        <v>0.20365</v>
+        <v>0.20694199999999999</v>
       </c>
       <c r="E76">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D77">
-        <v>0.205293</v>
+        <v>0.208597</v>
       </c>
       <c r="E77">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D78">
-        <v>0.20694199999999999</v>
+        <v>0.210258</v>
       </c>
       <c r="E78">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D79">
-        <v>0.208597</v>
+        <v>0.211925</v>
       </c>
       <c r="E79">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D80">
-        <v>0.210258</v>
+        <v>0.21359800000000001</v>
       </c>
       <c r="E80">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81">
-        <v>0.211925</v>
+        <v>0.215278</v>
       </c>
       <c r="E81">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82">
-        <v>0.21359800000000001</v>
+        <v>0.21696299999999999</v>
       </c>
       <c r="E82">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83">
-        <v>0.215278</v>
+        <v>0.21865399999999999</v>
       </c>
       <c r="E83">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84">
-        <v>0.21696299999999999</v>
+        <v>0.22035099999999999</v>
       </c>
       <c r="E84">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85">
-        <v>0.21865399999999999</v>
+        <v>0.222054</v>
       </c>
       <c r="E85">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86">
-        <v>0.22035099999999999</v>
+        <v>0.22376299999999999</v>
       </c>
       <c r="E86">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87">
-        <v>0.222054</v>
+        <v>0.22547800000000001</v>
       </c>
       <c r="E87">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88">
-        <v>0.22376299999999999</v>
+        <v>0.22719900000000001</v>
       </c>
       <c r="E88">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89">
-        <v>0.22547800000000001</v>
+        <v>0.22892599999999999</v>
       </c>
       <c r="E89">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90">
-        <v>0.22719900000000001</v>
+        <v>0.230659</v>
       </c>
       <c r="E90">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91">
-        <v>0.22892599999999999</v>
+        <v>0.23239799999999999</v>
       </c>
       <c r="E91">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92">
-        <v>0.230659</v>
+        <v>0.23414299999999999</v>
       </c>
       <c r="E92">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D93">
-        <v>0.23239799999999999</v>
+        <v>0.23589399999999999</v>
       </c>
       <c r="E93">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94">
-        <v>0.23414299999999999</v>
+        <v>0.237651</v>
       </c>
       <c r="E94">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95">
-        <v>0.23589399999999999</v>
+        <v>0.240901</v>
       </c>
       <c r="E95">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96">
-        <v>0.237651</v>
+        <v>0.24249499999999999</v>
       </c>
       <c r="E96">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97">
-        <v>0.240901</v>
+        <v>0.24409700000000001</v>
       </c>
       <c r="E97">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98">
-        <v>0.24249499999999999</v>
+        <v>0.24570700000000001</v>
       </c>
       <c r="E98">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99">
-        <v>0.24409700000000001</v>
+        <v>0.24732499999999999</v>
       </c>
       <c r="E99">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100">
-        <v>0.24570700000000001</v>
+        <v>0.24895100000000001</v>
       </c>
       <c r="E100">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101">
-        <v>0.24732499999999999</v>
+        <v>0.250585</v>
       </c>
       <c r="E101">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102">
-        <v>0.24895100000000001</v>
+        <v>0.25222800000000001</v>
       </c>
       <c r="E102">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103">
-        <v>0.250585</v>
+        <v>0.25387799999999999</v>
       </c>
       <c r="E103">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104">
-        <v>0.25222800000000001</v>
+        <v>0.25553599999999999</v>
       </c>
       <c r="E104">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105">
-        <v>0.25387799999999999</v>
+        <v>0.25720199999999999</v>
       </c>
       <c r="E105">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106">
-        <v>0.25553599999999999</v>
+        <v>0.258876</v>
       </c>
       <c r="E106">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107">
-        <v>0.25720199999999999</v>
+        <v>0.26055800000000001</v>
       </c>
       <c r="E107">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108">
-        <v>0.258876</v>
+        <v>0.26224799999999998</v>
       </c>
       <c r="E108">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109">
-        <v>0.26055800000000001</v>
+        <v>0.26394600000000001</v>
       </c>
       <c r="E109">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110">
-        <v>0.26224799999999998</v>
+        <v>0.265652</v>
       </c>
       <c r="E110">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111">
-        <v>0.26394600000000001</v>
+        <v>0.26736599999999999</v>
       </c>
       <c r="E111">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112">
-        <v>0.265652</v>
+        <v>0.26908799999999999</v>
       </c>
       <c r="E112">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113">
-        <v>0.26736599999999999</v>
+        <v>0.270818</v>
       </c>
       <c r="E113">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114">
-        <v>0.26908799999999999</v>
+        <v>0.27255600000000002</v>
       </c>
       <c r="E114">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115">
-        <v>0.270818</v>
+        <v>0.27430199999999999</v>
       </c>
       <c r="E115">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116">
-        <v>0.27255600000000002</v>
+        <v>0.27605600000000002</v>
       </c>
       <c r="E116">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117">
-        <v>0.27430199999999999</v>
+        <v>0.27781800000000001</v>
       </c>
       <c r="E117">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118">
-        <v>0.27605600000000002</v>
+        <v>0.279588</v>
       </c>
       <c r="E118">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119">
-        <v>0.27781800000000001</v>
+        <v>0.281366</v>
       </c>
       <c r="E119">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120">
-        <v>0.279588</v>
+        <v>0.28315200000000001</v>
       </c>
       <c r="E120">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121">
-        <v>0.281366</v>
+        <v>0.28494599999999998</v>
       </c>
       <c r="E121">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122">
-        <v>0.28315200000000001</v>
+        <v>0.28855799999999998</v>
       </c>
       <c r="E122">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123">
-        <v>0.28494599999999998</v>
+        <v>0.29220200000000002</v>
       </c>
       <c r="E123">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124">
-        <v>0.28855799999999998</v>
+        <v>0.29587799999999997</v>
       </c>
       <c r="E124">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125">
-        <v>0.29180400000000001</v>
+        <v>0.29772799999999999</v>
       </c>
       <c r="E125">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126">
-        <v>0.29220200000000002</v>
+        <v>0.30332599999999998</v>
       </c>
       <c r="E126">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127">
-        <v>0.29587799999999997</v>
+        <v>0.30520799999999998</v>
       </c>
       <c r="E127">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128">
-        <v>0.29772799999999999</v>
+        <v>0.30709799999999998</v>
       </c>
       <c r="E128">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129">
-        <v>0.29958600000000002</v>
+        <v>0.30899599999999999</v>
       </c>
       <c r="E129">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130">
-        <v>0.30332599999999998</v>
+        <v>0.31090200000000001</v>
       </c>
       <c r="E130">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131">
-        <v>0.30520799999999998</v>
+        <v>0.31281500000000001</v>
       </c>
       <c r="E131">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132">
-        <v>0.30709799999999998</v>
+        <v>0.31473699999999999</v>
       </c>
       <c r="E132">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133">
-        <v>0.30899599999999999</v>
+        <v>0.31860500000000003</v>
       </c>
       <c r="E133">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134">
-        <v>0.31090200000000001</v>
+        <v>0.32055099999999997</v>
       </c>
       <c r="E134">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135">
-        <v>0.31281500000000001</v>
+        <v>0.32250499999999999</v>
       </c>
       <c r="E135">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136">
-        <v>0.31473699999999999</v>
+        <v>0.32446700000000001</v>
       </c>
       <c r="E136">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137">
-        <v>0.31860500000000003</v>
+        <v>0.32643699999999998</v>
       </c>
       <c r="E137">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138">
-        <v>0.32055099999999997</v>
+        <v>0.32841500000000001</v>
       </c>
       <c r="E138">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139">
-        <v>0.32250499999999999</v>
+        <v>0.330401</v>
       </c>
       <c r="E139">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140">
-        <v>0.32446700000000001</v>
+        <v>0.332395</v>
       </c>
       <c r="E140">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141">
-        <v>0.32643699999999998</v>
+        <v>0.334397</v>
       </c>
       <c r="E141">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142">
-        <v>0.32841500000000001</v>
+        <v>0.33640700000000001</v>
       </c>
       <c r="E142">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143">
-        <v>0.330401</v>
+        <v>0.33842499999999998</v>
       </c>
       <c r="E143">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144">
-        <v>0.332395</v>
+        <v>0.340451</v>
       </c>
       <c r="E144">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145">
-        <v>0.334397</v>
+        <v>0.34248499999999998</v>
       </c>
       <c r="E145">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146">
-        <v>0.33640700000000001</v>
+        <v>0.34452700000000003</v>
       </c>
       <c r="E146">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147">
-        <v>0.33842499999999998</v>
+        <v>0.34657700000000002</v>
       </c>
       <c r="E147">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148">
-        <v>0.340451</v>
+        <v>0.34863499999999997</v>
       </c>
       <c r="E148">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149">
-        <v>0.34248499999999998</v>
+        <v>0.35070099999999998</v>
       </c>
       <c r="E149">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150">
-        <v>0.34452700000000003</v>
+        <v>0.35277500000000001</v>
       </c>
       <c r="E150">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151">
-        <v>0.34657700000000002</v>
+        <v>0.35485699999999998</v>
       </c>
       <c r="E151">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152">
-        <v>0.34863499999999997</v>
+        <v>0.35694700000000001</v>
       </c>
       <c r="E152">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153">
-        <v>0.35070099999999998</v>
+        <v>0.359045</v>
       </c>
       <c r="E153">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154">
-        <v>0.35277500000000001</v>
+        <v>0.361151</v>
       </c>
       <c r="E154">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155">
-        <v>0.35485699999999998</v>
+        <v>0.363265</v>
       </c>
       <c r="E155">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156">
-        <v>0.35694700000000001</v>
+        <v>0.36538700000000002</v>
       </c>
       <c r="E156">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157">
-        <v>0.359045</v>
+        <v>0.36751699999999998</v>
       </c>
       <c r="E157">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158">
-        <v>0.361151</v>
+        <v>0.36965399999999998</v>
       </c>
       <c r="E158">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159">
-        <v>0.363265</v>
+        <v>0.37180000000000002</v>
       </c>
       <c r="E159">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160">
-        <v>0.36538700000000002</v>
+        <v>0.37395400000000001</v>
       </c>
       <c r="E160">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161">
-        <v>0.36751699999999998</v>
+        <v>0.37611600000000001</v>
       </c>
       <c r="E161">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162">
-        <v>0.36965399999999998</v>
+        <v>0.37828600000000001</v>
       </c>
       <c r="E162">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163">
-        <v>0.37180000000000002</v>
+        <v>0.38046400000000002</v>
       </c>
       <c r="E163">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164">
-        <v>0.37395400000000001</v>
+        <v>0.38264999999999999</v>
       </c>
       <c r="E164">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165">
-        <v>0.37611600000000001</v>
+        <v>0.38484400000000002</v>
       </c>
       <c r="E165">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166">
-        <v>0.37828600000000001</v>
+        <v>0.387046</v>
       </c>
       <c r="E166">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167">
-        <v>0.38046400000000002</v>
+        <v>0.38925599999999999</v>
       </c>
       <c r="E167">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168">
-        <v>0.38264999999999999</v>
+        <v>0.39147399999999999</v>
       </c>
       <c r="E168">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169">
-        <v>0.38484400000000002</v>
+        <v>0.39369999999999999</v>
       </c>
       <c r="E169">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170">
-        <v>0.387046</v>
+        <v>0.39593400000000001</v>
       </c>
       <c r="E170">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171">
-        <v>0.38925599999999999</v>
+        <v>0.39817599999999997</v>
       </c>
       <c r="E171">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172">
-        <v>0.39147399999999999</v>
+        <v>0.39817599999999997</v>
       </c>
       <c r="E172">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173">
-        <v>0.39369999999999999</v>
+        <v>0.400426</v>
       </c>
       <c r="E173">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174">
-        <v>0.39593400000000001</v>
+        <v>0.40268399999999999</v>
       </c>
       <c r="E174">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175">
-        <v>0.39817599999999997</v>
+        <v>0.404949</v>
       </c>
       <c r="E175">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176">
-        <v>0.39817599999999997</v>
+        <v>0.407223</v>
       </c>
       <c r="E176">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177">
-        <v>0.400426</v>
+        <v>0.40950500000000001</v>
       </c>
       <c r="E177">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178">
-        <v>0.40268399999999999</v>
+        <v>0.41179500000000002</v>
       </c>
       <c r="E178">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179">
-        <v>0.404949</v>
+        <v>0.41409299999999999</v>
       </c>
       <c r="E179">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180">
-        <v>0.407223</v>
+        <v>0.41639900000000002</v>
       </c>
       <c r="E180">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181">
-        <v>0.40950500000000001</v>
+        <v>0.418713</v>
       </c>
       <c r="E181">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182">
-        <v>0.41179500000000002</v>
+        <v>0.41875899999999999</v>
       </c>
       <c r="E182">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183">
-        <v>0.41409299999999999</v>
+        <v>0.41993599999999998</v>
       </c>
       <c r="E183">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184">
-        <v>0.41639900000000002</v>
+        <v>0.42103499999999999</v>
       </c>
       <c r="E184">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185">
-        <v>0.418713</v>
+        <v>0.42111100000000001</v>
       </c>
       <c r="E185">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186">
-        <v>0.41875899999999999</v>
+        <v>0.42228500000000002</v>
       </c>
       <c r="E186">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187">
-        <v>0.41993599999999998</v>
+        <v>0.42336499999999999</v>
       </c>
       <c r="E187">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188">
-        <v>0.42103499999999999</v>
+        <v>0.423456</v>
       </c>
       <c r="E188">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189">
-        <v>0.42111100000000001</v>
+        <v>0.424626</v>
       </c>
       <c r="E189">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190">
-        <v>0.42228500000000002</v>
+        <v>0.425703</v>
       </c>
       <c r="E190">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191">
-        <v>0.42336499999999999</v>
+        <v>0.42579400000000001</v>
       </c>
       <c r="E191">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192">
-        <v>0.423456</v>
+        <v>0.42696000000000001</v>
       </c>
       <c r="E192">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193">
-        <v>0.424626</v>
+        <v>0.42804900000000001</v>
       </c>
       <c r="E193">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194">
-        <v>0.425703</v>
+        <v>0.42812499999999998</v>
       </c>
       <c r="E194">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195">
-        <v>0.42579400000000001</v>
+        <v>0.429288</v>
       </c>
       <c r="E195">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196">
-        <v>0.42696000000000001</v>
+        <v>0.430448</v>
       </c>
       <c r="E196">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197">
-        <v>0.42804900000000001</v>
+        <v>0.43160700000000002</v>
       </c>
       <c r="E197">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198">
-        <v>0.42812499999999998</v>
+        <v>0.43276500000000001</v>
       </c>
       <c r="E198">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199">
-        <v>0.429288</v>
+        <v>0.43391999999999997</v>
       </c>
       <c r="E199">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200">
-        <v>0.430448</v>
+        <v>0.43507400000000002</v>
       </c>
       <c r="E200">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201">
-        <v>0.43160700000000002</v>
+        <v>0.436226</v>
       </c>
       <c r="E201">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202">
-        <v>0.43276500000000001</v>
+        <v>0.43737599999999999</v>
       </c>
       <c r="E202">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203">
-        <v>0.43391999999999997</v>
+        <v>0.43852400000000002</v>
       </c>
       <c r="E203">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204">
-        <v>0.43507400000000002</v>
+        <v>0.43967000000000001</v>
       </c>
       <c r="E204">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205">
-        <v>0.436226</v>
+        <v>0.44081500000000001</v>
       </c>
       <c r="E205">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206">
-        <v>0.43737599999999999</v>
+        <v>0.44195800000000002</v>
       </c>
       <c r="E206">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207">
-        <v>0.43852400000000002</v>
+        <v>0.44309900000000002</v>
       </c>
       <c r="E207">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208">
-        <v>0.43967000000000001</v>
+        <v>0.44423800000000002</v>
       </c>
       <c r="E208">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209">
-        <v>0.44081500000000001</v>
+        <v>0.44537599999999999</v>
       </c>
       <c r="E209">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210">
-        <v>0.44195800000000002</v>
+        <v>0.44651099999999999</v>
       </c>
       <c r="E210">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211">
-        <v>0.44309900000000002</v>
+        <v>0.44764500000000002</v>
       </c>
       <c r="E211">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212">
-        <v>0.44423800000000002</v>
+        <v>0.44877699999999998</v>
       </c>
       <c r="E212">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213">
-        <v>0.44537599999999999</v>
+        <v>0.449907</v>
       </c>
       <c r="E213">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214">
-        <v>0.44651099999999999</v>
+        <v>0.45103599999999999</v>
       </c>
       <c r="E214">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215">
-        <v>0.44764500000000002</v>
+        <v>0.45216200000000001</v>
       </c>
       <c r="E215">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216">
-        <v>0.44877699999999998</v>
+        <v>0.453287</v>
       </c>
       <c r="E216">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D217">
-        <v>0.449907</v>
+        <v>0.45440999999999998</v>
       </c>
       <c r="E217">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="218" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D218">
-        <v>0.45103599999999999</v>
+        <v>0.45665099999999997</v>
       </c>
       <c r="E218">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D219">
-        <v>0.45216200000000001</v>
+        <v>0.45743899999999998</v>
       </c>
       <c r="E219">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="220" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D220">
-        <v>0.453287</v>
+        <v>0.45776899999999998</v>
       </c>
       <c r="E220">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="221" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D221">
-        <v>0.45440999999999998</v>
+        <v>0.45888400000000001</v>
       </c>
       <c r="E221">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="222" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D222">
-        <v>0.45665099999999997</v>
+        <v>0.45932200000000001</v>
       </c>
       <c r="E222">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="223" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D223">
-        <v>0.45743899999999998</v>
+        <v>0.45999800000000002</v>
       </c>
       <c r="E223">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D224">
-        <v>0.45776899999999998</v>
+        <v>0.46121899999999999</v>
       </c>
       <c r="E224">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="225" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D225">
-        <v>0.45888400000000001</v>
+        <v>0.46222099999999999</v>
       </c>
       <c r="E225">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="226" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D226">
-        <v>0.45932200000000001</v>
+        <v>0.46312999999999999</v>
       </c>
       <c r="E226">
-        <v>335</v>
+        <v>337</v>
+      </c>
+      <c r="J226">
+        <v>0.32475900000000002</v>
+      </c>
+      <c r="K226">
+        <v>252</v>
       </c>
     </row>
     <row r="227" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D227">
-        <v>0.45999800000000002</v>
+        <v>0.465055</v>
       </c>
       <c r="E227">
-        <v>326</v>
+        <v>338</v>
+      </c>
+      <c r="J227">
+        <v>0.32626899999999998</v>
+      </c>
+      <c r="K227">
+        <v>253</v>
       </c>
     </row>
     <row r="228" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D228">
-        <v>0.46121899999999999</v>
+        <v>0.46699299999999999</v>
       </c>
       <c r="E228">
-        <v>336</v>
+        <v>339</v>
+      </c>
+      <c r="J228">
+        <v>0.32778299999999999</v>
+      </c>
+      <c r="K228">
+        <v>254</v>
       </c>
     </row>
     <row r="229" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D229">
-        <v>0.46222099999999999</v>
+        <v>0.46894599999999997</v>
       </c>
       <c r="E229">
-        <v>328</v>
+        <v>340</v>
+      </c>
+      <c r="J229">
+        <v>0.32930100000000001</v>
+      </c>
+      <c r="K229">
+        <v>255</v>
       </c>
     </row>
     <row r="230" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D230">
-        <v>0.46312999999999999</v>
+        <v>0.47091300000000003</v>
       </c>
       <c r="E230">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J230">
-        <v>0.32475900000000002</v>
+        <v>0.33082299999999998</v>
       </c>
       <c r="K230">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="231" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D231">
-        <v>0.465055</v>
+        <v>0.47289399999999998</v>
       </c>
       <c r="E231">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J231">
-        <v>0.32626899999999998</v>
+        <v>0.33234900000000001</v>
       </c>
       <c r="K231">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D232">
-        <v>0.46699299999999999</v>
+        <v>0.47488900000000001</v>
       </c>
       <c r="E232">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J232">
-        <v>0.32778299999999999</v>
+        <v>0.33387899999999998</v>
       </c>
       <c r="K232">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="233" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D233">
-        <v>0.46894599999999997</v>
+        <v>0.47689799999999999</v>
       </c>
       <c r="E233">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J233">
-        <v>0.32930100000000001</v>
+        <v>0.33541300000000002</v>
       </c>
       <c r="K233">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="234" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D234">
-        <v>0.47091300000000003</v>
+        <v>0.47892000000000001</v>
       </c>
       <c r="E234">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J234">
-        <v>0.33082299999999998</v>
+        <v>0.336951</v>
       </c>
       <c r="K234">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="235" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D235">
-        <v>0.47289399999999998</v>
+        <v>0.48095700000000002</v>
       </c>
       <c r="E235">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J235">
-        <v>0.33234900000000001</v>
+        <v>0.33849299999999999</v>
       </c>
       <c r="K235">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="236" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D236">
-        <v>0.47488900000000001</v>
+        <v>0.48300799999999999</v>
       </c>
       <c r="E236">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J236">
-        <v>0.33387899999999998</v>
+        <v>0.34003899999999998</v>
       </c>
       <c r="K236">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="237" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D237">
-        <v>0.47689799999999999</v>
+        <v>0.48507299999999998</v>
       </c>
       <c r="E237">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J237">
-        <v>0.33541300000000002</v>
+        <v>0.34158899999999998</v>
       </c>
       <c r="K237">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="238" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D238">
-        <v>0.47892000000000001</v>
+        <v>0.48715199999999997</v>
       </c>
       <c r="E238">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J238">
-        <v>0.336951</v>
+        <v>0.34314299999999998</v>
       </c>
       <c r="K238">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="239" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D239">
-        <v>0.48095700000000002</v>
+        <v>0.48924400000000001</v>
       </c>
       <c r="E239">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J239">
-        <v>0.33849299999999999</v>
+        <v>0.34470099999999998</v>
       </c>
       <c r="K239">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="240" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D240">
-        <v>0.48300799999999999</v>
+        <v>0.49135099999999998</v>
       </c>
       <c r="E240">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="J240">
-        <v>0.34003899999999998</v>
+        <v>0.34626299999999999</v>
       </c>
       <c r="K240">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D241">
-        <v>0.48507299999999998</v>
+        <v>0.49347200000000002</v>
       </c>
       <c r="E241">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="J241">
-        <v>0.34158899999999998</v>
+        <v>0.347829</v>
       </c>
       <c r="K241">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="242" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D242">
-        <v>0.48715199999999997</v>
+        <v>0.49560700000000002</v>
       </c>
       <c r="E242">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="J242">
-        <v>0.34314299999999998</v>
+        <v>0.34939900000000002</v>
       </c>
       <c r="K242">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D243">
-        <v>0.48924400000000001</v>
+        <v>0.497755</v>
       </c>
       <c r="E243">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="J243">
-        <v>0.34470099999999998</v>
+        <v>0.35097299999999998</v>
       </c>
       <c r="K243">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D244">
-        <v>0.49135099999999998</v>
+        <v>0.49991799999999997</v>
       </c>
       <c r="E244">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="J244">
-        <v>0.34626299999999999</v>
+        <v>0.352551</v>
       </c>
       <c r="K244">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D245">
-        <v>0.49347200000000002</v>
+        <v>0.50209499999999996</v>
       </c>
       <c r="E245">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J245">
-        <v>0.347829</v>
+        <v>0.35413299999999998</v>
       </c>
       <c r="K245">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D246">
-        <v>0.49560700000000002</v>
+        <v>0.50428499999999998</v>
       </c>
       <c r="E246">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J246">
-        <v>0.34939900000000002</v>
+        <v>0.35571900000000001</v>
       </c>
       <c r="K246">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D247">
-        <v>0.497755</v>
+        <v>0.50649</v>
       </c>
       <c r="E247">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J247">
-        <v>0.35097299999999998</v>
+        <v>0.35730899999999999</v>
       </c>
       <c r="K247">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D248">
-        <v>0.49991799999999997</v>
+        <v>0.50870899999999997</v>
       </c>
       <c r="E248">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J248">
-        <v>0.352551</v>
+        <v>0.35890300000000003</v>
       </c>
       <c r="K248">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D249">
-        <v>0.50209499999999996</v>
+        <v>0.51094099999999998</v>
       </c>
       <c r="E249">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J249">
-        <v>0.35413299999999998</v>
+        <v>0.36050100000000002</v>
       </c>
       <c r="K249">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D250">
-        <v>0.50428499999999998</v>
+        <v>0.51318799999999998</v>
       </c>
       <c r="E250">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J250">
-        <v>0.35571900000000001</v>
+        <v>0.36210300000000001</v>
       </c>
       <c r="K250">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D251">
-        <v>0.50649</v>
+        <v>0.51544800000000002</v>
       </c>
       <c r="E251">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J251">
-        <v>0.35730899999999999</v>
+        <v>0.363709</v>
       </c>
       <c r="K251">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D252">
-        <v>0.50870899999999997</v>
+        <v>0.51772200000000002</v>
       </c>
       <c r="E252">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J252">
-        <v>0.35890300000000003</v>
+        <v>0.365319</v>
       </c>
       <c r="K252">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D253">
-        <v>0.51094099999999998</v>
+        <v>0.520011</v>
       </c>
       <c r="E253">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J253">
-        <v>0.36050100000000002</v>
+        <v>0.36693300000000001</v>
       </c>
       <c r="K253">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D254">
-        <v>0.51318799999999998</v>
+        <v>0.52231300000000003</v>
       </c>
       <c r="E254">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J254">
-        <v>0.36210300000000001</v>
+        <v>0.36854999999999999</v>
       </c>
       <c r="K254">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D255">
-        <v>0.51544800000000002</v>
+        <v>0.529914</v>
       </c>
       <c r="E255">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J255">
-        <v>0.363709</v>
+        <v>0.370172</v>
       </c>
       <c r="K255">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D256">
-        <v>0.51772200000000002</v>
+        <v>0.53017800000000004</v>
       </c>
       <c r="E256">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J256">
-        <v>0.365319</v>
+        <v>0.37179800000000002</v>
       </c>
       <c r="K256">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="257" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D257">
-        <v>0.520011</v>
+        <v>0.53045299999999995</v>
       </c>
       <c r="E257">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J257">
-        <v>0.36693300000000001</v>
+        <v>0.37342799999999998</v>
       </c>
       <c r="K257">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="258" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D258">
-        <v>0.52231300000000003</v>
+        <v>0.53073800000000004</v>
       </c>
       <c r="E258">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="J258">
-        <v>0.36854999999999999</v>
+        <v>0.37506200000000001</v>
       </c>
       <c r="K258">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="259" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D259">
-        <v>0.529914</v>
+        <v>0.53103299999999998</v>
       </c>
       <c r="E259">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J259">
-        <v>0.370172</v>
+        <v>0.37669999999999998</v>
       </c>
       <c r="K259">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="260" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D260">
-        <v>0.53017800000000004</v>
+        <v>0.53133799999999998</v>
       </c>
       <c r="E260">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J260">
-        <v>0.37179800000000002</v>
+        <v>0.37834200000000001</v>
       </c>
       <c r="K260">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="261" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D261">
-        <v>0.53045299999999995</v>
+        <v>0.53165300000000004</v>
       </c>
       <c r="E261">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J261">
-        <v>0.37342799999999998</v>
+        <v>0.37998799999999999</v>
       </c>
       <c r="K261">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="262" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D262">
-        <v>0.53073800000000004</v>
+        <v>0.53197700000000003</v>
       </c>
       <c r="E262">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="J262">
-        <v>0.37506200000000001</v>
+        <v>0.38163799999999998</v>
       </c>
       <c r="K262">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="263" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D263">
-        <v>0.53103299999999998</v>
+        <v>0.53231200000000001</v>
       </c>
       <c r="E263">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="J263">
-        <v>0.37669999999999998</v>
+        <v>0.38329200000000002</v>
       </c>
       <c r="K263">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="264" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D264">
-        <v>0.53133799999999998</v>
+        <v>0.53265700000000005</v>
       </c>
       <c r="E264">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J264">
-        <v>0.37834200000000001</v>
+        <v>0.38495000000000001</v>
       </c>
       <c r="K264">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="265" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D265">
-        <v>0.53165300000000004</v>
+        <v>0.53301200000000004</v>
       </c>
       <c r="E265">
-        <v>372</v>
-      </c>
-      <c r="J265">
-        <v>0.37998799999999999</v>
-      </c>
-      <c r="K265">
-        <v>287</v>
+        <v>376</v>
       </c>
     </row>
     <row r="266" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D266">
-        <v>0.53197700000000003</v>
+        <v>0.53337599999999996</v>
       </c>
       <c r="E266">
-        <v>373</v>
-      </c>
-      <c r="J266">
-        <v>0.38163799999999998</v>
-      </c>
-      <c r="K266">
-        <v>288</v>
+        <v>377</v>
       </c>
     </row>
     <row r="267" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D267">
-        <v>0.53231200000000001</v>
+        <v>0.53375099999999998</v>
       </c>
       <c r="E267">
-        <v>374</v>
-      </c>
-      <c r="J267">
-        <v>0.38329200000000002</v>
-      </c>
-      <c r="K267">
-        <v>289</v>
+        <v>378</v>
       </c>
     </row>
     <row r="268" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D268">
-        <v>0.53265700000000005</v>
+        <v>0.53413600000000006</v>
       </c>
       <c r="E268">
-        <v>375</v>
-      </c>
-      <c r="J268">
-        <v>0.38495000000000001</v>
-      </c>
-      <c r="K268">
-        <v>290</v>
+        <v>379</v>
       </c>
     </row>
     <row r="269" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D269">
-        <v>0.53301200000000004</v>
+        <v>0.53452999999999995</v>
       </c>
       <c r="E269">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="270" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D270">
-        <v>0.53337599999999996</v>
+        <v>0.53577399999999997</v>
       </c>
       <c r="E270">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="271" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D271">
-        <v>0.53375099999999998</v>
+        <v>0.53620900000000005</v>
       </c>
       <c r="E271">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="272" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D272">
-        <v>0.53413600000000006</v>
+        <v>0.53665300000000005</v>
       </c>
       <c r="E272">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D273">
-        <v>0.53452999999999995</v>
+        <v>0.53710800000000003</v>
       </c>
       <c r="E273">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="274" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D274">
-        <v>0.53577399999999997</v>
+        <v>0.53757200000000005</v>
       </c>
       <c r="E274">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="275" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D275">
-        <v>0.53620900000000005</v>
+        <v>0.53804700000000005</v>
       </c>
       <c r="E275">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="276" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D276">
-        <v>0.53665300000000005</v>
+        <v>0.53853099999999998</v>
       </c>
       <c r="E276">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="277" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D277">
-        <v>0.53710800000000003</v>
+        <v>0.53952999999999995</v>
       </c>
       <c r="E277">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="278" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D278">
-        <v>0.53757200000000005</v>
+        <v>0.54004399999999997</v>
       </c>
       <c r="E278">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="279" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D279">
-        <v>0.53804700000000005</v>
+        <v>0.54056800000000005</v>
       </c>
       <c r="E279">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="280" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D280">
-        <v>0.53853099999999998</v>
+        <v>0.54164699999999999</v>
       </c>
       <c r="E280">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="281" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D281">
-        <v>0.53952999999999995</v>
+        <v>0.54220100000000004</v>
       </c>
       <c r="E281">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="282" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D282">
-        <v>0.54004399999999997</v>
+        <v>0.54276500000000005</v>
       </c>
       <c r="E282">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D283">
-        <v>0.54056800000000005</v>
-      </c>
-      <c r="E283">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D284">
-        <v>0.54164699999999999</v>
-      </c>
-      <c r="E284">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D285">
-        <v>0.54220100000000004</v>
-      </c>
-      <c r="E285">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D286">
-        <v>0.54276500000000005</v>
-      </c>
-      <c r="E286">
         <v>397</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:E286">
-    <sortCondition ref="D3:D286"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:E282">
+    <sortCondition ref="D3:D282"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35699,6 +35786,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -35927,24 +36031,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC3A44B-2E43-454A-BBA7-EBDF5C93942F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C69340E-2751-479C-A826-08E03A5B21D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99C8A8-65B8-4C1C-AC8C-1B7793729012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35961,29 +36073,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C69340E-2751-479C-A826-08E03A5B21D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC3A44B-2E43-454A-BBA7-EBDF5C93942F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/Test Excelsheet for LiCl n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/Test Excelsheet for LiCl n=4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\LiCl - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C8701-EF34-4AB3-AEAB-40EDAA8BCF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B980050-C7CE-426E-A211-D030B595907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E88A55E1-2FE1-4A75-8B73-96F5B642C0CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E88A55E1-2FE1-4A75-8B73-96F5B642C0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet for finding Unknown LiCl" sheetId="1" r:id="rId1"/>
@@ -2645,7 +2645,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18222430555555555"/>
+          <c:y val="0.12500092592592593"/>
+          <c:w val="0.76338912037037032"/>
+          <c:h val="0.63401782407407403"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3015,7 +3025,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D5E-4321-A92C-85C792284B8A}"/>
+              <c16:uniqueId val="{00000000-6DDC-4619-B9C4-A116F43A2E6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3053,10 +3063,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Comparision graph'!$D$3:$D$282</c:f>
+              <c:f>'Comparision graph'!$D$3:$D$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
                   <c:v>4.0983099999999999E-4</c:v>
                 </c:pt>
@@ -3211,690 +3221,579 @@
                   <c:v>0.17641000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.17788999999999999</c:v>
+                  <c:v>0.190722</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.17929</c:v>
+                  <c:v>0.19231699999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.18060999999999999</c:v>
+                  <c:v>0.19391800000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.18185000000000001</c:v>
+                  <c:v>0.195525</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.182837</c:v>
+                  <c:v>0.19713800000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.18301000000000001</c:v>
+                  <c:v>0.19875699999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.18409</c:v>
+                  <c:v>0.200382</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.18440200000000001</c:v>
+                  <c:v>0.202013</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.18509</c:v>
+                  <c:v>0.20365</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.185973</c:v>
+                  <c:v>0.205293</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.18601000000000001</c:v>
+                  <c:v>0.20694199999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.189133</c:v>
+                  <c:v>0.208597</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.190722</c:v>
+                  <c:v>0.210258</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.19231699999999999</c:v>
+                  <c:v>0.211925</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.19391800000000001</c:v>
+                  <c:v>0.21359800000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.195525</c:v>
+                  <c:v>0.215278</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.19713800000000001</c:v>
+                  <c:v>0.21696299999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.19875699999999999</c:v>
+                  <c:v>0.21865399999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.200382</c:v>
+                  <c:v>0.22035099999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.202013</c:v>
+                  <c:v>0.222054</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.20365</c:v>
+                  <c:v>0.22376299999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.205293</c:v>
+                  <c:v>0.22547800000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.20694199999999999</c:v>
+                  <c:v>0.22719900000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.208597</c:v>
+                  <c:v>0.22892599999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.210258</c:v>
+                  <c:v>0.230659</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.211925</c:v>
+                  <c:v>0.23239799999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.21359800000000001</c:v>
+                  <c:v>0.23414299999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.215278</c:v>
+                  <c:v>0.23589399999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.21696299999999999</c:v>
+                  <c:v>0.237651</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.21865399999999999</c:v>
+                  <c:v>0.240901</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.22035099999999999</c:v>
+                  <c:v>0.24249499999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.222054</c:v>
+                  <c:v>0.24409700000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.22376299999999999</c:v>
+                  <c:v>0.24570700000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.22547800000000001</c:v>
+                  <c:v>0.24732499999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.22719900000000001</c:v>
+                  <c:v>0.24895100000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.22892599999999999</c:v>
+                  <c:v>0.250585</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.230659</c:v>
+                  <c:v>0.25222800000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.23239799999999999</c:v>
+                  <c:v>0.25387799999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.23414299999999999</c:v>
+                  <c:v>0.25553599999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.23589399999999999</c:v>
+                  <c:v>0.25720199999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.237651</c:v>
+                  <c:v>0.258876</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.240901</c:v>
+                  <c:v>0.26055800000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.24249499999999999</c:v>
+                  <c:v>0.26224799999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.24409700000000001</c:v>
+                  <c:v>0.26394600000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.24570700000000001</c:v>
+                  <c:v>0.265652</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.24732499999999999</c:v>
+                  <c:v>0.26736599999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.24895100000000001</c:v>
+                  <c:v>0.26908799999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.250585</c:v>
+                  <c:v>0.270818</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.25222800000000001</c:v>
+                  <c:v>0.27255600000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.25387799999999999</c:v>
+                  <c:v>0.27430199999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.25553599999999999</c:v>
+                  <c:v>0.27605600000000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.25720199999999999</c:v>
+                  <c:v>0.27781800000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.258876</c:v>
+                  <c:v>0.279588</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.26055800000000001</c:v>
+                  <c:v>0.281366</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.26224799999999998</c:v>
+                  <c:v>0.28315200000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.26394600000000001</c:v>
+                  <c:v>0.28494599999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.265652</c:v>
+                  <c:v>0.28855799999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.26736599999999999</c:v>
+                  <c:v>0.29220200000000002</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.26908799999999999</c:v>
+                  <c:v>0.29587799999999997</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.270818</c:v>
+                  <c:v>0.29772799999999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.27255600000000002</c:v>
+                  <c:v>0.30332599999999998</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.27430199999999999</c:v>
+                  <c:v>0.30520799999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.27605600000000002</c:v>
+                  <c:v>0.30709799999999998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.27781800000000001</c:v>
+                  <c:v>0.30899599999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.279588</c:v>
+                  <c:v>0.31090200000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.281366</c:v>
+                  <c:v>0.31281500000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.28315200000000001</c:v>
+                  <c:v>0.31473699999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.28494599999999998</c:v>
+                  <c:v>0.31860500000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.28855799999999998</c:v>
+                  <c:v>0.32055099999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.29220200000000002</c:v>
+                  <c:v>0.32250499999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.29587799999999997</c:v>
+                  <c:v>0.32446700000000001</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.29772799999999999</c:v>
+                  <c:v>0.32643699999999998</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.30332599999999998</c:v>
+                  <c:v>0.32841500000000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.30520799999999998</c:v>
+                  <c:v>0.330401</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.30709799999999998</c:v>
+                  <c:v>0.332395</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.30899599999999999</c:v>
+                  <c:v>0.334397</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.31090200000000001</c:v>
+                  <c:v>0.33640700000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.31281500000000001</c:v>
+                  <c:v>0.33842499999999998</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.31473699999999999</c:v>
+                  <c:v>0.340451</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.31860500000000003</c:v>
+                  <c:v>0.34248499999999998</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.32055099999999997</c:v>
+                  <c:v>0.34452700000000003</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.32250499999999999</c:v>
+                  <c:v>0.34657700000000002</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.32446700000000001</c:v>
+                  <c:v>0.34863499999999997</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.32643699999999998</c:v>
+                  <c:v>0.35070099999999998</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.32841500000000001</c:v>
+                  <c:v>0.35277500000000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.330401</c:v>
+                  <c:v>0.35485699999999998</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.332395</c:v>
+                  <c:v>0.35694700000000001</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.334397</c:v>
+                  <c:v>0.359045</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.33640700000000001</c:v>
+                  <c:v>0.361151</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.33842499999999998</c:v>
+                  <c:v>0.363265</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.340451</c:v>
+                  <c:v>0.36538700000000002</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.34248499999999998</c:v>
+                  <c:v>0.36751699999999998</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.34452700000000003</c:v>
+                  <c:v>0.36965399999999998</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.34657700000000002</c:v>
+                  <c:v>0.37180000000000002</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.34863499999999997</c:v>
+                  <c:v>0.37395400000000001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.35070099999999998</c:v>
+                  <c:v>0.37611600000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.35277500000000001</c:v>
+                  <c:v>0.37828600000000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.35485699999999998</c:v>
+                  <c:v>0.38046400000000002</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.35694700000000001</c:v>
+                  <c:v>0.38264999999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.359045</c:v>
+                  <c:v>0.38484400000000002</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.361151</c:v>
+                  <c:v>0.387046</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.363265</c:v>
+                  <c:v>0.38925599999999999</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.36538700000000002</c:v>
+                  <c:v>0.39147399999999999</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.36751699999999998</c:v>
+                  <c:v>0.39369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.36965399999999998</c:v>
+                  <c:v>0.39593400000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.37180000000000002</c:v>
+                  <c:v>0.39817599999999997</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.37395400000000001</c:v>
+                  <c:v>0.42812499999999998</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.37611600000000001</c:v>
+                  <c:v>0.429288</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.37828600000000001</c:v>
+                  <c:v>0.430448</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.38046400000000002</c:v>
+                  <c:v>0.43160700000000002</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.38264999999999999</c:v>
+                  <c:v>0.43276500000000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.38484400000000002</c:v>
+                  <c:v>0.43391999999999997</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.387046</c:v>
+                  <c:v>0.43507400000000002</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.38925599999999999</c:v>
+                  <c:v>0.436226</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.39147399999999999</c:v>
+                  <c:v>0.43737599999999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.39369999999999999</c:v>
+                  <c:v>0.43852400000000002</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.39593400000000001</c:v>
+                  <c:v>0.43967000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.39817599999999997</c:v>
+                  <c:v>0.44081500000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.39817599999999997</c:v>
+                  <c:v>0.44195800000000002</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.400426</c:v>
+                  <c:v>0.44309900000000002</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.40268399999999999</c:v>
+                  <c:v>0.44423800000000002</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.404949</c:v>
+                  <c:v>0.44537599999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.407223</c:v>
+                  <c:v>0.44651099999999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.40950500000000001</c:v>
+                  <c:v>0.44764500000000002</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.41179500000000002</c:v>
+                  <c:v>0.44877699999999998</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.41409299999999999</c:v>
+                  <c:v>0.449907</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.41639900000000002</c:v>
+                  <c:v>0.45103599999999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.418713</c:v>
+                  <c:v>0.45216200000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.41875899999999999</c:v>
+                  <c:v>0.453287</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.41993599999999998</c:v>
+                  <c:v>0.45440999999999998</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.42103499999999999</c:v>
+                  <c:v>0.45665099999999997</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.42111100000000001</c:v>
+                  <c:v>0.45743899999999998</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.42228500000000002</c:v>
+                  <c:v>0.45776899999999998</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.42336499999999999</c:v>
+                  <c:v>0.45888400000000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.423456</c:v>
+                  <c:v>0.45932200000000001</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.424626</c:v>
+                  <c:v>0.46312999999999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.425703</c:v>
+                  <c:v>0.465055</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.42579400000000001</c:v>
+                  <c:v>0.46699299999999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.42696000000000001</c:v>
+                  <c:v>0.46894599999999997</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.42804900000000001</c:v>
+                  <c:v>0.47091300000000003</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.42812499999999998</c:v>
+                  <c:v>0.47289399999999998</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.429288</c:v>
+                  <c:v>0.47488900000000001</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.430448</c:v>
+                  <c:v>0.47689799999999999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.43160700000000002</c:v>
+                  <c:v>0.47892000000000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.43276500000000001</c:v>
+                  <c:v>0.48095700000000002</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.43391999999999997</c:v>
+                  <c:v>0.48300799999999999</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.43507400000000002</c:v>
+                  <c:v>0.48507299999999998</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.436226</c:v>
+                  <c:v>0.48715199999999997</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.43737599999999999</c:v>
+                  <c:v>0.48924400000000001</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.43852400000000002</c:v>
+                  <c:v>0.49135099999999998</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.43967000000000001</c:v>
+                  <c:v>0.49347200000000002</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.44081500000000001</c:v>
+                  <c:v>0.49560700000000002</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.44195800000000002</c:v>
+                  <c:v>0.497755</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.44309900000000002</c:v>
+                  <c:v>0.49991799999999997</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.44423800000000002</c:v>
+                  <c:v>0.50209499999999996</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.44537599999999999</c:v>
+                  <c:v>0.50428499999999998</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.44651099999999999</c:v>
+                  <c:v>0.50649</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.44764500000000002</c:v>
+                  <c:v>0.50870899999999997</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.44877699999999998</c:v>
+                  <c:v>0.51094099999999998</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.449907</c:v>
+                  <c:v>0.51318799999999998</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.45103599999999999</c:v>
+                  <c:v>0.51544800000000002</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.45216200000000001</c:v>
+                  <c:v>0.51772200000000002</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.453287</c:v>
+                  <c:v>0.520011</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.45440999999999998</c:v>
+                  <c:v>0.52231300000000003</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.45665099999999997</c:v>
+                  <c:v>0.529914</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.45743899999999998</c:v>
+                  <c:v>0.53017800000000004</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.45776899999999998</c:v>
+                  <c:v>0.53045299999999995</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.45888400000000001</c:v>
+                  <c:v>0.53073800000000004</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.45932200000000001</c:v>
+                  <c:v>0.53103299999999998</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.45999800000000002</c:v>
+                  <c:v>0.53133799999999998</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.46121899999999999</c:v>
+                  <c:v>0.53165300000000004</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.46222099999999999</c:v>
+                  <c:v>0.53197700000000003</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.46312999999999999</c:v>
+                  <c:v>0.53231200000000001</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.465055</c:v>
+                  <c:v>0.53265700000000005</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.46699299999999999</c:v>
+                  <c:v>0.53301200000000004</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.46894599999999997</c:v>
+                  <c:v>0.53337599999999996</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.47091300000000003</c:v>
+                  <c:v>0.53375099999999998</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.47289399999999998</c:v>
+                  <c:v>0.53413600000000006</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.47488900000000001</c:v>
+                  <c:v>0.53452999999999995</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.47689799999999999</c:v>
+                  <c:v>0.53577399999999997</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.47892000000000001</c:v>
+                  <c:v>0.53620900000000005</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.48095700000000002</c:v>
+                  <c:v>0.53665300000000005</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.48300799999999999</c:v>
+                  <c:v>0.53710800000000003</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.48507299999999998</c:v>
+                  <c:v>0.53757200000000005</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.48715199999999997</c:v>
+                  <c:v>0.53804700000000005</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.48924400000000001</c:v>
+                  <c:v>0.53853099999999998</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.49135099999999998</c:v>
+                  <c:v>0.53952999999999995</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.49347200000000002</c:v>
+                  <c:v>0.54004399999999997</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.49560700000000002</c:v>
+                  <c:v>0.54056800000000005</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.497755</c:v>
+                  <c:v>0.54164699999999999</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.49991799999999997</c:v>
+                  <c:v>0.54220100000000004</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.50209499999999996</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.50428499999999998</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.50649</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.50870899999999997</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.51094099999999998</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.51318799999999998</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.51544800000000002</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.51772200000000002</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.520011</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.52231300000000003</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.529914</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.53017800000000004</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.53045299999999995</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.53073800000000004</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.53103299999999998</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.53133799999999998</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.53165300000000004</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.53197700000000003</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.53231200000000001</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0.53265700000000005</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0.53301200000000004</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0.53337599999999996</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0.53375099999999998</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0.53413600000000006</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0.53452999999999995</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0.53577399999999997</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0.53620900000000005</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0.53665300000000005</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0.53710800000000003</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0.53757200000000005</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0.53804700000000005</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0.53853099999999998</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0.53952999999999995</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0.54004399999999997</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0.54056800000000005</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0.54164699999999999</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0.54220100000000004</c:v>
-                </c:pt>
-                <c:pt idx="279">
                   <c:v>0.54276500000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -3902,10 +3801,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Comparision graph'!$E$3:$E$282</c:f>
+              <c:f>'Comparision graph'!$E$3:$E$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
                   <c:v>274</c:v>
                 </c:pt>
@@ -4060,690 +3959,579 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>223</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>222</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>221</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>220</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>223</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>219</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>218</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>222</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>217</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>221</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>216</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>219</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>218</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>217</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>216</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>215</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>214</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>213</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>212</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>211</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>210</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>209</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>208</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>207</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>206</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>205</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>202</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>201</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>200</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>199</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>197</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>196</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>195</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>194</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>193</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>192</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>191</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>190</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>195</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>196</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>197</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>198</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>199</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>200</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>201</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>202</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>203</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>204</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>205</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>206</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>207</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>208</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>209</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>210</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>211</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>212</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>213</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>214</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>215</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>216</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>217</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>218</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>219</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>220</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>221</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>223</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>225</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>227</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>228</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>230</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>231</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>232</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>233</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>234</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>235</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>236</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>238</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>239</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>240</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>241</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>242</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>243</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>244</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>245</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>246</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>247</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>248</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>249</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>250</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>251</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>252</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>253</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>254</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>255</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>256</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>257</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>258</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>259</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>260</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>261</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>262</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>263</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>264</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>265</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>266</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>267</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>268</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>269</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>270</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>271</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>272</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>273</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>274</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>275</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>276</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>277</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>278</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>279</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>280</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>281</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>282</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>283</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>284</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>285</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>286</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>290</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>291</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>287</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>292</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>293</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>288</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>294</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>295</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>289</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>296</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>297</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>290</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>298</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>299</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>300</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>301</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>302</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>303</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>304</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>305</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>306</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>307</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>308</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>309</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>310</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>311</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>312</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>313</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>314</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>315</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>316</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>317</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>318</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>319</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>320</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>321</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>323</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>334</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>324</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>325</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>335</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>326</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>336</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>328</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>337</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>338</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>339</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>340</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>341</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>342</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>343</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>344</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>345</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>346</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>347</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>348</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>349</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>350</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>351</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>352</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>353</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>354</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>355</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="279">
                   <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
@@ -4752,7 +4540,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D5E-4321-A92C-85C792284B8A}"/>
+              <c16:uniqueId val="{00000001-6DDC-4619-B9C4-A116F43A2E6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20976,27 +20764,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>45180</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95909610-FE69-7A9C-B621-0EEC9257C994}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5255A84-C76A-44AA-BDE2-EB3FF3D70E8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -21426,7 +21216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6104B-C9E0-42E8-AA2A-689EB615114A}">
   <dimension ref="A1:AY60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AV4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BM13" sqref="BM13"/>
     </sheetView>
   </sheetViews>
@@ -32954,10 +32744,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782205F6-3FFD-4338-A2A5-04E9D62A3720}">
-  <dimension ref="A1:K282"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33706,10 +33496,10 @@
         <v>392.43024828438303</v>
       </c>
       <c r="D54">
-        <v>0.17788999999999999</v>
+        <v>0.190722</v>
       </c>
       <c r="E54">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -33720,255 +33510,255 @@
         <v>396.77013240720601</v>
       </c>
       <c r="D55">
-        <v>0.17929</v>
+        <v>0.19231699999999999</v>
       </c>
       <c r="E55">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D56">
-        <v>0.18060999999999999</v>
+        <v>0.19391800000000001</v>
       </c>
       <c r="E56">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D57">
-        <v>0.18185000000000001</v>
+        <v>0.195525</v>
       </c>
       <c r="E57">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D58">
-        <v>0.182837</v>
+        <v>0.19713800000000001</v>
       </c>
       <c r="E58">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D59">
-        <v>0.18301000000000001</v>
+        <v>0.19875699999999999</v>
       </c>
       <c r="E59">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D60">
-        <v>0.18409</v>
+        <v>0.200382</v>
       </c>
       <c r="E60">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D61">
-        <v>0.18440200000000001</v>
+        <v>0.202013</v>
       </c>
       <c r="E61">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D62">
-        <v>0.18509</v>
+        <v>0.20365</v>
       </c>
       <c r="E62">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D63">
-        <v>0.185973</v>
+        <v>0.205293</v>
       </c>
       <c r="E63">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D64">
-        <v>0.18601000000000001</v>
+        <v>0.20694199999999999</v>
       </c>
       <c r="E64">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65">
-        <v>0.189133</v>
+        <v>0.208597</v>
       </c>
       <c r="E65">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66">
-        <v>0.190722</v>
+        <v>0.210258</v>
       </c>
       <c r="E66">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67">
-        <v>0.19231699999999999</v>
+        <v>0.211925</v>
       </c>
       <c r="E67">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68">
-        <v>0.19391800000000001</v>
+        <v>0.21359800000000001</v>
       </c>
       <c r="E68">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D69">
-        <v>0.195525</v>
+        <v>0.215278</v>
       </c>
       <c r="E69">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D70">
-        <v>0.19713800000000001</v>
+        <v>0.21696299999999999</v>
       </c>
       <c r="E70">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D71">
-        <v>0.19875699999999999</v>
+        <v>0.21865399999999999</v>
       </c>
       <c r="E71">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D72">
-        <v>0.200382</v>
+        <v>0.22035099999999999</v>
       </c>
       <c r="E72">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D73">
-        <v>0.202013</v>
+        <v>0.222054</v>
       </c>
       <c r="E73">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D74">
-        <v>0.20365</v>
+        <v>0.22376299999999999</v>
       </c>
       <c r="E74">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D75">
-        <v>0.205293</v>
+        <v>0.22547800000000001</v>
       </c>
       <c r="E75">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D76">
-        <v>0.20694199999999999</v>
+        <v>0.22719900000000001</v>
       </c>
       <c r="E76">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D77">
-        <v>0.208597</v>
+        <v>0.22892599999999999</v>
       </c>
       <c r="E77">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D78">
-        <v>0.210258</v>
+        <v>0.230659</v>
       </c>
       <c r="E78">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D79">
-        <v>0.211925</v>
+        <v>0.23239799999999999</v>
       </c>
       <c r="E79">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D80">
-        <v>0.21359800000000001</v>
+        <v>0.23414299999999999</v>
       </c>
       <c r="E80">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81">
-        <v>0.215278</v>
+        <v>0.23589399999999999</v>
       </c>
       <c r="E81">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82">
-        <v>0.21696299999999999</v>
+        <v>0.237651</v>
       </c>
       <c r="E82">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83">
-        <v>0.21865399999999999</v>
+        <v>0.240901</v>
       </c>
       <c r="E83">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84">
-        <v>0.22035099999999999</v>
+        <v>0.24249499999999999</v>
       </c>
       <c r="E84">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85">
-        <v>0.222054</v>
+        <v>0.24409700000000001</v>
       </c>
       <c r="E85">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86">
-        <v>0.22376299999999999</v>
+        <v>0.24570700000000001</v>
       </c>
       <c r="E86">
         <v>198</v>
@@ -33976,1803 +33766,1273 @@
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87">
-        <v>0.22547800000000001</v>
+        <v>0.24732499999999999</v>
       </c>
       <c r="E87">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88">
-        <v>0.22719900000000001</v>
+        <v>0.24895100000000001</v>
       </c>
       <c r="E88">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89">
-        <v>0.22892599999999999</v>
+        <v>0.250585</v>
       </c>
       <c r="E89">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90">
-        <v>0.230659</v>
+        <v>0.25222800000000001</v>
       </c>
       <c r="E90">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91">
-        <v>0.23239799999999999</v>
+        <v>0.25387799999999999</v>
       </c>
       <c r="E91">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92">
-        <v>0.23414299999999999</v>
+        <v>0.25553599999999999</v>
       </c>
       <c r="E92">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D93">
-        <v>0.23589399999999999</v>
+        <v>0.25720199999999999</v>
       </c>
       <c r="E93">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94">
-        <v>0.237651</v>
+        <v>0.258876</v>
       </c>
       <c r="E94">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95">
-        <v>0.240901</v>
+        <v>0.26055800000000001</v>
       </c>
       <c r="E95">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96">
-        <v>0.24249499999999999</v>
+        <v>0.26224799999999998</v>
       </c>
       <c r="E96">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97">
-        <v>0.24409700000000001</v>
+        <v>0.26394600000000001</v>
       </c>
       <c r="E97">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98">
-        <v>0.24570700000000001</v>
+        <v>0.265652</v>
       </c>
       <c r="E98">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99">
-        <v>0.24732499999999999</v>
+        <v>0.26736599999999999</v>
       </c>
       <c r="E99">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100">
-        <v>0.24895100000000001</v>
+        <v>0.26908799999999999</v>
       </c>
       <c r="E100">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101">
-        <v>0.250585</v>
+        <v>0.270818</v>
       </c>
       <c r="E101">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102">
-        <v>0.25222800000000001</v>
+        <v>0.27255600000000002</v>
       </c>
       <c r="E102">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103">
-        <v>0.25387799999999999</v>
+        <v>0.27430199999999999</v>
       </c>
       <c r="E103">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104">
-        <v>0.25553599999999999</v>
+        <v>0.27605600000000002</v>
       </c>
       <c r="E104">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105">
-        <v>0.25720199999999999</v>
+        <v>0.27781800000000001</v>
       </c>
       <c r="E105">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106">
-        <v>0.258876</v>
+        <v>0.279588</v>
       </c>
       <c r="E106">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107">
-        <v>0.26055800000000001</v>
+        <v>0.281366</v>
       </c>
       <c r="E107">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108">
-        <v>0.26224799999999998</v>
+        <v>0.28315200000000001</v>
       </c>
       <c r="E108">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109">
-        <v>0.26394600000000001</v>
+        <v>0.28494599999999998</v>
       </c>
       <c r="E109">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110">
-        <v>0.265652</v>
+        <v>0.28855799999999998</v>
       </c>
       <c r="E110">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111">
-        <v>0.26736599999999999</v>
+        <v>0.29220200000000002</v>
       </c>
       <c r="E111">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112">
-        <v>0.26908799999999999</v>
+        <v>0.29587799999999997</v>
       </c>
       <c r="E112">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113">
-        <v>0.270818</v>
+        <v>0.29772799999999999</v>
       </c>
       <c r="E113">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114">
-        <v>0.27255600000000002</v>
+        <v>0.30332599999999998</v>
       </c>
       <c r="E114">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115">
-        <v>0.27430199999999999</v>
+        <v>0.30520799999999998</v>
       </c>
       <c r="E115">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116">
-        <v>0.27605600000000002</v>
+        <v>0.30709799999999998</v>
       </c>
       <c r="E116">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117">
-        <v>0.27781800000000001</v>
+        <v>0.30899599999999999</v>
       </c>
       <c r="E117">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118">
-        <v>0.279588</v>
+        <v>0.31090200000000001</v>
       </c>
       <c r="E118">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119">
-        <v>0.281366</v>
+        <v>0.31281500000000001</v>
       </c>
       <c r="E119">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120">
-        <v>0.28315200000000001</v>
+        <v>0.31473699999999999</v>
       </c>
       <c r="E120">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121">
-        <v>0.28494599999999998</v>
+        <v>0.31860500000000003</v>
       </c>
       <c r="E121">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122">
-        <v>0.28855799999999998</v>
+        <v>0.32055099999999997</v>
       </c>
       <c r="E122">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123">
-        <v>0.29220200000000002</v>
+        <v>0.32250499999999999</v>
       </c>
       <c r="E123">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124">
-        <v>0.29587799999999997</v>
+        <v>0.32446700000000001</v>
       </c>
       <c r="E124">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125">
-        <v>0.29772799999999999</v>
+        <v>0.32643699999999998</v>
       </c>
       <c r="E125">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126">
-        <v>0.30332599999999998</v>
+        <v>0.32841500000000001</v>
       </c>
       <c r="E126">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127">
-        <v>0.30520799999999998</v>
+        <v>0.330401</v>
       </c>
       <c r="E127">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128">
-        <v>0.30709799999999998</v>
+        <v>0.332395</v>
       </c>
       <c r="E128">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129">
-        <v>0.30899599999999999</v>
+        <v>0.334397</v>
       </c>
       <c r="E129">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130">
-        <v>0.31090200000000001</v>
+        <v>0.33640700000000001</v>
       </c>
       <c r="E130">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131">
-        <v>0.31281500000000001</v>
+        <v>0.33842499999999998</v>
       </c>
       <c r="E131">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132">
-        <v>0.31473699999999999</v>
+        <v>0.340451</v>
       </c>
       <c r="E132">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133">
-        <v>0.31860500000000003</v>
+        <v>0.34248499999999998</v>
       </c>
       <c r="E133">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134">
-        <v>0.32055099999999997</v>
+        <v>0.34452700000000003</v>
       </c>
       <c r="E134">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135">
-        <v>0.32250499999999999</v>
+        <v>0.34657700000000002</v>
       </c>
       <c r="E135">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136">
-        <v>0.32446700000000001</v>
+        <v>0.34863499999999997</v>
       </c>
       <c r="E136">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137">
-        <v>0.32643699999999998</v>
+        <v>0.35070099999999998</v>
       </c>
       <c r="E137">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138">
-        <v>0.32841500000000001</v>
+        <v>0.35277500000000001</v>
       </c>
       <c r="E138">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139">
-        <v>0.330401</v>
+        <v>0.35485699999999998</v>
       </c>
       <c r="E139">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140">
-        <v>0.332395</v>
+        <v>0.35694700000000001</v>
       </c>
       <c r="E140">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141">
-        <v>0.334397</v>
+        <v>0.359045</v>
       </c>
       <c r="E141">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142">
-        <v>0.33640700000000001</v>
+        <v>0.361151</v>
       </c>
       <c r="E142">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143">
-        <v>0.33842499999999998</v>
+        <v>0.363265</v>
       </c>
       <c r="E143">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144">
-        <v>0.340451</v>
+        <v>0.36538700000000002</v>
       </c>
       <c r="E144">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145">
-        <v>0.34248499999999998</v>
+        <v>0.36751699999999998</v>
       </c>
       <c r="E145">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146">
-        <v>0.34452700000000003</v>
+        <v>0.36965399999999998</v>
       </c>
       <c r="E146">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147">
-        <v>0.34657700000000002</v>
+        <v>0.37180000000000002</v>
       </c>
       <c r="E147">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148">
-        <v>0.34863499999999997</v>
+        <v>0.37395400000000001</v>
       </c>
       <c r="E148">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149">
-        <v>0.35070099999999998</v>
+        <v>0.37611600000000001</v>
       </c>
       <c r="E149">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150">
-        <v>0.35277500000000001</v>
+        <v>0.37828600000000001</v>
       </c>
       <c r="E150">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151">
-        <v>0.35485699999999998</v>
+        <v>0.38046400000000002</v>
       </c>
       <c r="E151">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152">
-        <v>0.35694700000000001</v>
+        <v>0.38264999999999999</v>
       </c>
       <c r="E152">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153">
-        <v>0.359045</v>
+        <v>0.38484400000000002</v>
       </c>
       <c r="E153">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154">
-        <v>0.361151</v>
+        <v>0.387046</v>
       </c>
       <c r="E154">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155">
-        <v>0.363265</v>
+        <v>0.38925599999999999</v>
       </c>
       <c r="E155">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156">
-        <v>0.36538700000000002</v>
+        <v>0.39147399999999999</v>
       </c>
       <c r="E156">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157">
-        <v>0.36751699999999998</v>
+        <v>0.39369999999999999</v>
       </c>
       <c r="E157">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158">
-        <v>0.36965399999999998</v>
+        <v>0.39593400000000001</v>
       </c>
       <c r="E158">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159">
-        <v>0.37180000000000002</v>
+        <v>0.39817599999999997</v>
       </c>
       <c r="E159">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160">
-        <v>0.37395400000000001</v>
+        <v>0.42812499999999998</v>
       </c>
       <c r="E160">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161">
-        <v>0.37611600000000001</v>
+        <v>0.429288</v>
       </c>
       <c r="E161">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162">
-        <v>0.37828600000000001</v>
+        <v>0.430448</v>
       </c>
       <c r="E162">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163">
-        <v>0.38046400000000002</v>
+        <v>0.43160700000000002</v>
       </c>
       <c r="E163">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164">
-        <v>0.38264999999999999</v>
+        <v>0.43276500000000001</v>
       </c>
       <c r="E164">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165">
-        <v>0.38484400000000002</v>
+        <v>0.43391999999999997</v>
       </c>
       <c r="E165">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166">
-        <v>0.387046</v>
+        <v>0.43507400000000002</v>
       </c>
       <c r="E166">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167">
-        <v>0.38925599999999999</v>
+        <v>0.436226</v>
       </c>
       <c r="E167">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168">
-        <v>0.39147399999999999</v>
+        <v>0.43737599999999999</v>
       </c>
       <c r="E168">
-        <v>273</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169">
-        <v>0.39369999999999999</v>
+        <v>0.43852400000000002</v>
       </c>
       <c r="E169">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170">
-        <v>0.39593400000000001</v>
+        <v>0.43967000000000001</v>
       </c>
       <c r="E170">
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171">
-        <v>0.39817599999999997</v>
+        <v>0.44081500000000001</v>
       </c>
       <c r="E171">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172">
-        <v>0.39817599999999997</v>
+        <v>0.44195800000000002</v>
       </c>
       <c r="E172">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173">
-        <v>0.400426</v>
+        <v>0.44309900000000002</v>
       </c>
       <c r="E173">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174">
-        <v>0.40268399999999999</v>
+        <v>0.44423800000000002</v>
       </c>
       <c r="E174">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175">
-        <v>0.404949</v>
+        <v>0.44537599999999999</v>
       </c>
       <c r="E175">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176">
-        <v>0.407223</v>
+        <v>0.44651099999999999</v>
       </c>
       <c r="E176">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177">
-        <v>0.40950500000000001</v>
+        <v>0.44764500000000002</v>
       </c>
       <c r="E177">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178">
-        <v>0.41179500000000002</v>
+        <v>0.44877699999999998</v>
       </c>
       <c r="E178">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179">
-        <v>0.41409299999999999</v>
+        <v>0.449907</v>
       </c>
       <c r="E179">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180">
-        <v>0.41639900000000002</v>
+        <v>0.45103599999999999</v>
       </c>
       <c r="E180">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181">
-        <v>0.418713</v>
+        <v>0.45216200000000001</v>
       </c>
       <c r="E181">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182">
-        <v>0.41875899999999999</v>
+        <v>0.453287</v>
       </c>
       <c r="E182">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183">
-        <v>0.41993599999999998</v>
+        <v>0.45440999999999998</v>
       </c>
       <c r="E183">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184">
-        <v>0.42103499999999999</v>
+        <v>0.45665099999999997</v>
       </c>
       <c r="E184">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185">
-        <v>0.42111100000000001</v>
+        <v>0.45743899999999998</v>
       </c>
       <c r="E185">
-        <v>292</v>
+        <v>334</v>
       </c>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186">
-        <v>0.42228500000000002</v>
+        <v>0.45776899999999998</v>
       </c>
       <c r="E186">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187">
-        <v>0.42336499999999999</v>
+        <v>0.45888400000000001</v>
       </c>
       <c r="E187">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188">
-        <v>0.423456</v>
+        <v>0.45932200000000001</v>
       </c>
       <c r="E188">
-        <v>294</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189">
-        <v>0.424626</v>
+        <v>0.46312999999999999</v>
       </c>
       <c r="E189">
-        <v>295</v>
+        <v>337</v>
       </c>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190">
-        <v>0.425703</v>
+        <v>0.465055</v>
       </c>
       <c r="E190">
-        <v>289</v>
+        <v>338</v>
       </c>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191">
-        <v>0.42579400000000001</v>
+        <v>0.46699299999999999</v>
       </c>
       <c r="E191">
-        <v>296</v>
+        <v>339</v>
       </c>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192">
-        <v>0.42696000000000001</v>
+        <v>0.46894599999999997</v>
       </c>
       <c r="E192">
-        <v>297</v>
+        <v>340</v>
       </c>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193">
-        <v>0.42804900000000001</v>
+        <v>0.47091300000000003</v>
       </c>
       <c r="E193">
-        <v>290</v>
+        <v>341</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194">
-        <v>0.42812499999999998</v>
+        <v>0.47289399999999998</v>
       </c>
       <c r="E194">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195">
-        <v>0.429288</v>
+        <v>0.47488900000000001</v>
       </c>
       <c r="E195">
-        <v>299</v>
+        <v>343</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196">
-        <v>0.430448</v>
+        <v>0.47689799999999999</v>
       </c>
       <c r="E196">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197">
-        <v>0.43160700000000002</v>
+        <v>0.47892000000000001</v>
       </c>
       <c r="E197">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198">
-        <v>0.43276500000000001</v>
+        <v>0.48095700000000002</v>
       </c>
       <c r="E198">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199">
-        <v>0.43391999999999997</v>
+        <v>0.48300799999999999</v>
       </c>
       <c r="E199">
-        <v>303</v>
+        <v>347</v>
       </c>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200">
-        <v>0.43507400000000002</v>
+        <v>0.48507299999999998</v>
       </c>
       <c r="E200">
-        <v>304</v>
+        <v>348</v>
       </c>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201">
-        <v>0.436226</v>
+        <v>0.48715199999999997</v>
       </c>
       <c r="E201">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202">
-        <v>0.43737599999999999</v>
+        <v>0.48924400000000001</v>
       </c>
       <c r="E202">
-        <v>306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203">
-        <v>0.43852400000000002</v>
+        <v>0.49135099999999998</v>
       </c>
       <c r="E203">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204">
-        <v>0.43967000000000001</v>
+        <v>0.49347200000000002</v>
       </c>
       <c r="E204">
-        <v>308</v>
+        <v>352</v>
       </c>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205">
-        <v>0.44081500000000001</v>
+        <v>0.49560700000000002</v>
       </c>
       <c r="E205">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206">
-        <v>0.44195800000000002</v>
+        <v>0.497755</v>
       </c>
       <c r="E206">
-        <v>310</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207">
-        <v>0.44309900000000002</v>
+        <v>0.49991799999999997</v>
       </c>
       <c r="E207">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208">
-        <v>0.44423800000000002</v>
+        <v>0.50209499999999996</v>
       </c>
       <c r="E208">
-        <v>312</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209">
-        <v>0.44537599999999999</v>
+        <v>0.50428499999999998</v>
       </c>
       <c r="E209">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210">
-        <v>0.44651099999999999</v>
+        <v>0.50649</v>
       </c>
       <c r="E210">
-        <v>314</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211">
-        <v>0.44764500000000002</v>
+        <v>0.50870899999999997</v>
       </c>
       <c r="E211">
-        <v>315</v>
+        <v>359</v>
       </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212">
-        <v>0.44877699999999998</v>
+        <v>0.51094099999999998</v>
       </c>
       <c r="E212">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213">
-        <v>0.449907</v>
+        <v>0.51318799999999998</v>
       </c>
       <c r="E213">
-        <v>317</v>
+        <v>361</v>
       </c>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214">
-        <v>0.45103599999999999</v>
+        <v>0.51544800000000002</v>
       </c>
       <c r="E214">
-        <v>318</v>
+        <v>362</v>
       </c>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215">
-        <v>0.45216200000000001</v>
+        <v>0.51772200000000002</v>
       </c>
       <c r="E215">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216">
-        <v>0.453287</v>
+        <v>0.520011</v>
       </c>
       <c r="E216">
-        <v>320</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D217">
-        <v>0.45440999999999998</v>
+        <v>0.52231300000000003</v>
       </c>
       <c r="E217">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D218">
-        <v>0.45665099999999997</v>
+        <v>0.529914</v>
       </c>
       <c r="E218">
-        <v>323</v>
+        <v>366</v>
       </c>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D219">
-        <v>0.45743899999999998</v>
+        <v>0.53017800000000004</v>
       </c>
       <c r="E219">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D220">
-        <v>0.45776899999999998</v>
+        <v>0.53045299999999995</v>
       </c>
       <c r="E220">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="221" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D221">
-        <v>0.45888400000000001</v>
+        <v>0.53073800000000004</v>
       </c>
       <c r="E221">
-        <v>325</v>
+        <v>369</v>
       </c>
     </row>
     <row r="222" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D222">
-        <v>0.45932200000000001</v>
+        <v>0.53103299999999998</v>
       </c>
       <c r="E222">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="223" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D223">
-        <v>0.45999800000000002</v>
+        <v>0.53133799999999998</v>
       </c>
       <c r="E223">
-        <v>326</v>
+        <v>371</v>
       </c>
     </row>
     <row r="224" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D224">
-        <v>0.46121899999999999</v>
+        <v>0.53165300000000004</v>
       </c>
       <c r="E224">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="225" spans="4:11" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D225">
-        <v>0.46222099999999999</v>
+        <v>0.53197700000000003</v>
       </c>
       <c r="E225">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="226" spans="4:11" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D226">
-        <v>0.46312999999999999</v>
+        <v>0.53231200000000001</v>
       </c>
       <c r="E226">
-        <v>337</v>
-      </c>
-      <c r="J226">
-        <v>0.32475900000000002</v>
-      </c>
-      <c r="K226">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="227" spans="4:11" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D227">
-        <v>0.465055</v>
+        <v>0.53265700000000005</v>
       </c>
       <c r="E227">
-        <v>338</v>
-      </c>
-      <c r="J227">
-        <v>0.32626899999999998</v>
-      </c>
-      <c r="K227">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="228" spans="4:11" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D228">
-        <v>0.46699299999999999</v>
+        <v>0.53301200000000004</v>
       </c>
       <c r="E228">
-        <v>339</v>
-      </c>
-      <c r="J228">
-        <v>0.32778299999999999</v>
-      </c>
-      <c r="K228">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="229" spans="4:11" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D229">
-        <v>0.46894599999999997</v>
+        <v>0.53337599999999996</v>
       </c>
       <c r="E229">
-        <v>340</v>
-      </c>
-      <c r="J229">
-        <v>0.32930100000000001</v>
-      </c>
-      <c r="K229">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="230" spans="4:11" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D230">
-        <v>0.47091300000000003</v>
+        <v>0.53375099999999998</v>
       </c>
       <c r="E230">
-        <v>341</v>
-      </c>
-      <c r="J230">
-        <v>0.33082299999999998</v>
-      </c>
-      <c r="K230">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="231" spans="4:11" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D231">
-        <v>0.47289399999999998</v>
+        <v>0.53413600000000006</v>
       </c>
       <c r="E231">
-        <v>342</v>
-      </c>
-      <c r="J231">
-        <v>0.33234900000000001</v>
-      </c>
-      <c r="K231">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="232" spans="4:11" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D232">
-        <v>0.47488900000000001</v>
+        <v>0.53452999999999995</v>
       </c>
       <c r="E232">
-        <v>343</v>
-      </c>
-      <c r="J232">
-        <v>0.33387899999999998</v>
-      </c>
-      <c r="K232">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="233" spans="4:11" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D233">
-        <v>0.47689799999999999</v>
+        <v>0.53577399999999997</v>
       </c>
       <c r="E233">
-        <v>344</v>
-      </c>
-      <c r="J233">
-        <v>0.33541300000000002</v>
-      </c>
-      <c r="K233">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="234" spans="4:11" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D234">
-        <v>0.47892000000000001</v>
+        <v>0.53620900000000005</v>
       </c>
       <c r="E234">
-        <v>345</v>
-      </c>
-      <c r="J234">
-        <v>0.336951</v>
-      </c>
-      <c r="K234">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="235" spans="4:11" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D235">
-        <v>0.48095700000000002</v>
+        <v>0.53665300000000005</v>
       </c>
       <c r="E235">
-        <v>346</v>
-      </c>
-      <c r="J235">
-        <v>0.33849299999999999</v>
-      </c>
-      <c r="K235">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="236" spans="4:11" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D236">
-        <v>0.48300799999999999</v>
+        <v>0.53710800000000003</v>
       </c>
       <c r="E236">
-        <v>347</v>
-      </c>
-      <c r="J236">
-        <v>0.34003899999999998</v>
-      </c>
-      <c r="K236">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="237" spans="4:11" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D237">
-        <v>0.48507299999999998</v>
+        <v>0.53757200000000005</v>
       </c>
       <c r="E237">
-        <v>348</v>
-      </c>
-      <c r="J237">
-        <v>0.34158899999999998</v>
-      </c>
-      <c r="K237">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="238" spans="4:11" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D238">
-        <v>0.48715199999999997</v>
+        <v>0.53804700000000005</v>
       </c>
       <c r="E238">
-        <v>349</v>
-      </c>
-      <c r="J238">
-        <v>0.34314299999999998</v>
-      </c>
-      <c r="K238">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="239" spans="4:11" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D239">
-        <v>0.48924400000000001</v>
+        <v>0.53853099999999998</v>
       </c>
       <c r="E239">
-        <v>350</v>
-      </c>
-      <c r="J239">
-        <v>0.34470099999999998</v>
-      </c>
-      <c r="K239">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="240" spans="4:11" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D240">
-        <v>0.49135099999999998</v>
+        <v>0.53952999999999995</v>
       </c>
       <c r="E240">
-        <v>351</v>
-      </c>
-      <c r="J240">
-        <v>0.34626299999999999</v>
-      </c>
-      <c r="K240">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="241" spans="4:11" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D241">
-        <v>0.49347200000000002</v>
+        <v>0.54004399999999997</v>
       </c>
       <c r="E241">
-        <v>352</v>
-      </c>
-      <c r="J241">
-        <v>0.347829</v>
-      </c>
-      <c r="K241">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="242" spans="4:11" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D242">
-        <v>0.49560700000000002</v>
+        <v>0.54056800000000005</v>
       </c>
       <c r="E242">
-        <v>353</v>
-      </c>
-      <c r="J242">
-        <v>0.34939900000000002</v>
-      </c>
-      <c r="K242">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="243" spans="4:11" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D243">
-        <v>0.497755</v>
+        <v>0.54164699999999999</v>
       </c>
       <c r="E243">
-        <v>354</v>
-      </c>
-      <c r="J243">
-        <v>0.35097299999999998</v>
-      </c>
-      <c r="K243">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="244" spans="4:11" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D244">
-        <v>0.49991799999999997</v>
+        <v>0.54220100000000004</v>
       </c>
       <c r="E244">
-        <v>355</v>
-      </c>
-      <c r="J244">
-        <v>0.352551</v>
-      </c>
-      <c r="K244">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="245" spans="4:11" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D245">
-        <v>0.50209499999999996</v>
+        <v>0.54276500000000005</v>
       </c>
       <c r="E245">
-        <v>356</v>
-      </c>
-      <c r="J245">
-        <v>0.35413299999999998</v>
-      </c>
-      <c r="K245">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="246" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D246">
-        <v>0.50428499999999998</v>
-      </c>
-      <c r="E246">
-        <v>357</v>
-      </c>
-      <c r="J246">
-        <v>0.35571900000000001</v>
-      </c>
-      <c r="K246">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="247" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D247">
-        <v>0.50649</v>
-      </c>
-      <c r="E247">
-        <v>358</v>
-      </c>
-      <c r="J247">
-        <v>0.35730899999999999</v>
-      </c>
-      <c r="K247">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="248" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D248">
-        <v>0.50870899999999997</v>
-      </c>
-      <c r="E248">
-        <v>359</v>
-      </c>
-      <c r="J248">
-        <v>0.35890300000000003</v>
-      </c>
-      <c r="K248">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="249" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D249">
-        <v>0.51094099999999998</v>
-      </c>
-      <c r="E249">
-        <v>360</v>
-      </c>
-      <c r="J249">
-        <v>0.36050100000000002</v>
-      </c>
-      <c r="K249">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="250" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D250">
-        <v>0.51318799999999998</v>
-      </c>
-      <c r="E250">
-        <v>361</v>
-      </c>
-      <c r="J250">
-        <v>0.36210300000000001</v>
-      </c>
-      <c r="K250">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="251" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D251">
-        <v>0.51544800000000002</v>
-      </c>
-      <c r="E251">
-        <v>362</v>
-      </c>
-      <c r="J251">
-        <v>0.363709</v>
-      </c>
-      <c r="K251">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="252" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D252">
-        <v>0.51772200000000002</v>
-      </c>
-      <c r="E252">
-        <v>363</v>
-      </c>
-      <c r="J252">
-        <v>0.365319</v>
-      </c>
-      <c r="K252">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="253" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D253">
-        <v>0.520011</v>
-      </c>
-      <c r="E253">
-        <v>364</v>
-      </c>
-      <c r="J253">
-        <v>0.36693300000000001</v>
-      </c>
-      <c r="K253">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="254" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D254">
-        <v>0.52231300000000003</v>
-      </c>
-      <c r="E254">
-        <v>365</v>
-      </c>
-      <c r="J254">
-        <v>0.36854999999999999</v>
-      </c>
-      <c r="K254">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="255" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D255">
-        <v>0.529914</v>
-      </c>
-      <c r="E255">
-        <v>366</v>
-      </c>
-      <c r="J255">
-        <v>0.370172</v>
-      </c>
-      <c r="K255">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="256" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D256">
-        <v>0.53017800000000004</v>
-      </c>
-      <c r="E256">
-        <v>367</v>
-      </c>
-      <c r="J256">
-        <v>0.37179800000000002</v>
-      </c>
-      <c r="K256">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="257" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D257">
-        <v>0.53045299999999995</v>
-      </c>
-      <c r="E257">
-        <v>368</v>
-      </c>
-      <c r="J257">
-        <v>0.37342799999999998</v>
-      </c>
-      <c r="K257">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="258" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D258">
-        <v>0.53073800000000004</v>
-      </c>
-      <c r="E258">
-        <v>369</v>
-      </c>
-      <c r="J258">
-        <v>0.37506200000000001</v>
-      </c>
-      <c r="K258">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="259" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D259">
-        <v>0.53103299999999998</v>
-      </c>
-      <c r="E259">
-        <v>370</v>
-      </c>
-      <c r="J259">
-        <v>0.37669999999999998</v>
-      </c>
-      <c r="K259">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="260" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D260">
-        <v>0.53133799999999998</v>
-      </c>
-      <c r="E260">
-        <v>371</v>
-      </c>
-      <c r="J260">
-        <v>0.37834200000000001</v>
-      </c>
-      <c r="K260">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="261" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D261">
-        <v>0.53165300000000004</v>
-      </c>
-      <c r="E261">
-        <v>372</v>
-      </c>
-      <c r="J261">
-        <v>0.37998799999999999</v>
-      </c>
-      <c r="K261">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="262" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D262">
-        <v>0.53197700000000003</v>
-      </c>
-      <c r="E262">
-        <v>373</v>
-      </c>
-      <c r="J262">
-        <v>0.38163799999999998</v>
-      </c>
-      <c r="K262">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="263" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D263">
-        <v>0.53231200000000001</v>
-      </c>
-      <c r="E263">
-        <v>374</v>
-      </c>
-      <c r="J263">
-        <v>0.38329200000000002</v>
-      </c>
-      <c r="K263">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="264" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D264">
-        <v>0.53265700000000005</v>
-      </c>
-      <c r="E264">
-        <v>375</v>
-      </c>
-      <c r="J264">
-        <v>0.38495000000000001</v>
-      </c>
-      <c r="K264">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="265" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D265">
-        <v>0.53301200000000004</v>
-      </c>
-      <c r="E265">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="266" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D266">
-        <v>0.53337599999999996</v>
-      </c>
-      <c r="E266">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="267" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D267">
-        <v>0.53375099999999998</v>
-      </c>
-      <c r="E267">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="268" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D268">
-        <v>0.53413600000000006</v>
-      </c>
-      <c r="E268">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="269" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D269">
-        <v>0.53452999999999995</v>
-      </c>
-      <c r="E269">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="270" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D270">
-        <v>0.53577399999999997</v>
-      </c>
-      <c r="E270">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="271" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D271">
-        <v>0.53620900000000005</v>
-      </c>
-      <c r="E271">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="272" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D272">
-        <v>0.53665300000000005</v>
-      </c>
-      <c r="E272">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D273">
-        <v>0.53710800000000003</v>
-      </c>
-      <c r="E273">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D274">
-        <v>0.53757200000000005</v>
-      </c>
-      <c r="E274">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D275">
-        <v>0.53804700000000005</v>
-      </c>
-      <c r="E275">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D276">
-        <v>0.53853099999999998</v>
-      </c>
-      <c r="E276">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D277">
-        <v>0.53952999999999995</v>
-      </c>
-      <c r="E277">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D278">
-        <v>0.54004399999999997</v>
-      </c>
-      <c r="E278">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D279">
-        <v>0.54056800000000005</v>
-      </c>
-      <c r="E279">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D280">
-        <v>0.54164699999999999</v>
-      </c>
-      <c r="E280">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D281">
-        <v>0.54220100000000004</v>
-      </c>
-      <c r="E281">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D282">
-        <v>0.54276500000000005</v>
-      </c>
-      <c r="E282">
         <v>397</v>
       </c>
     </row>
@@ -35794,15 +35054,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -36031,6 +35282,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC3A44B-2E43-454A-BBA7-EBDF5C93942F}">
   <ds:schemaRefs>
@@ -36049,14 +35309,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C69340E-2751-479C-A826-08E03A5B21D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99C8A8-65B8-4C1C-AC8C-1B7793729012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36073,4 +35325,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C69340E-2751-479C-A826-08E03A5B21D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/Test Excelsheet for LiCl n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/Test Excelsheet for LiCl n=4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\LiCl - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 4/LiCl - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B980050-C7CE-426E-A211-D030B595907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9B980050-C7CE-426E-A211-D030B595907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{829E356D-58D3-4E77-BD7C-CB7297B7CF3C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E88A55E1-2FE1-4A75-8B73-96F5B642C0CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E88A55E1-2FE1-4A75-8B73-96F5B642C0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet for finding Unknown LiCl" sheetId="1" r:id="rId1"/>
@@ -501,64 +501,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t>Fig 14. Parity plot for LiCl n=4</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.22024560185185185"/>
-          <c:y val="0.85974375000000003"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -21216,43 +21159,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6104B-C9E0-42E8-AA2A-689EB615114A}">
   <dimension ref="A1:AY60"/>
   <sheetViews>
-    <sheetView topLeftCell="AV4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AV9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BM13" sqref="BM13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="12.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="13.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="6"/>
-    <col min="11" max="12" width="8.88671875" style="3"/>
-    <col min="13" max="13" width="7.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="3"/>
-    <col min="15" max="15" width="11.88671875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="6"/>
-    <col min="20" max="20" width="9.109375" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="6"/>
-    <col min="26" max="26" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="9.08984375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="13.08984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="6"/>
+    <col min="11" max="12" width="8.90625" style="3"/>
+    <col min="13" max="13" width="7.08984375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" style="3"/>
+    <col min="15" max="15" width="11.90625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" style="6"/>
+    <col min="20" max="20" width="9.08984375" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" customWidth="1"/>
+    <col min="23" max="23" width="8.90625" style="6"/>
+    <col min="26" max="26" width="8.90625" style="6"/>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12" style="6" customWidth="1"/>
     <col min="32" max="33" width="12" customWidth="1"/>
     <col min="34" max="34" width="12" style="8" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.21875" customWidth="1"/>
-    <col min="39" max="39" width="8.88671875" style="6"/>
-    <col min="41" max="43" width="21.5546875" style="3" customWidth="1"/>
-    <col min="45" max="45" width="13.44140625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="13.1796875" customWidth="1"/>
+    <col min="39" max="39" width="8.90625" style="6"/>
+    <col min="41" max="43" width="21.54296875" style="3" customWidth="1"/>
+    <col min="45" max="45" width="13.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
@@ -21271,7 +21214,7 @@
       <c r="AH1"/>
       <c r="AM1"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="I2"/>
       <c r="L2" s="4" t="s">
         <v>0</v>
@@ -21294,7 +21237,7 @@
       <c r="AH2" s="3"/>
       <c r="AM2"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="I3"/>
       <c r="L3" s="4" t="s">
         <v>1</v>
@@ -21317,7 +21260,7 @@
       <c r="AH3" s="3"/>
       <c r="AM3"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="I4"/>
       <c r="S4"/>
       <c r="W4"/>
@@ -21334,7 +21277,7 @@
       <c r="AH4" s="3"/>
       <c r="AM4"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="I5"/>
       <c r="S5"/>
       <c r="W5"/>
@@ -21344,7 +21287,7 @@
       <c r="AM5"/>
       <c r="AO5" s="5"/>
     </row>
-    <row r="6" spans="1:51" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -21423,7 +21366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1.0207999999999999</v>
       </c>
@@ -21577,7 +21520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1.0208999999999999</v>
       </c>
@@ -21729,7 +21672,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1.0212000000000001</v>
       </c>
@@ -21887,7 +21830,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1.0215000000000001</v>
       </c>
@@ -22045,7 +21988,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1.0218</v>
       </c>
@@ -22203,7 +22146,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1.0226999999999999</v>
       </c>
@@ -22361,7 +22304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>1.0238</v>
       </c>
@@ -22519,7 +22462,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2.1970000000000001</v>
       </c>
@@ -22677,7 +22620,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2.1970000000000001</v>
       </c>
@@ -22835,7 +22778,7 @@
         <v>1.5999999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2.198</v>
       </c>
@@ -22993,7 +22936,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2.198</v>
       </c>
@@ -23151,7 +23094,7 @@
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2.1989999999999998</v>
       </c>
@@ -23309,7 +23252,7 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2.2010000000000001</v>
       </c>
@@ -23467,7 +23410,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2.202</v>
       </c>
@@ -23625,7 +23568,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>3.94</v>
       </c>
@@ -23783,7 +23726,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>3.94</v>
       </c>
@@ -23941,7 +23884,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>3.9420000000000002</v>
       </c>
@@ -24099,7 +24042,7 @@
         <v>3.2000000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>3.944</v>
       </c>
@@ -24251,7 +24194,7 @@
         <v>3.4000000000000008</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>3.9460000000000002</v>
       </c>
@@ -24402,7 +24345,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>3.95</v>
       </c>
@@ -24550,7 +24493,7 @@
         <v>3.8000000000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>6.3689999999999998</v>
       </c>
@@ -24698,7 +24641,7 @@
         <v>4.0000000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>6.37</v>
       </c>
@@ -24846,7 +24789,7 @@
         <v>4.2000000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>6.3710000000000004</v>
       </c>
@@ -24994,7 +24937,7 @@
         <v>4.4000000000000012</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>6.3719999999999999</v>
       </c>
@@ -25142,7 +25085,7 @@
         <v>4.6000000000000014</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>6.375</v>
       </c>
@@ -25286,7 +25229,7 @@
         <v>1.6847000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>6.3789999999999996</v>
       </c>
@@ -25430,7 +25373,7 @@
         <v>1.6448</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>6.3840000000000003</v>
       </c>
@@ -25574,7 +25517,7 @@
         <v>1.6043000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>7.407</v>
       </c>
@@ -25718,7 +25661,7 @@
         <v>2.0259</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>7.4080000000000004</v>
       </c>
@@ -25862,7 +25805,7 @@
         <v>1.9772000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>7.4089999999999998</v>
       </c>
@@ -26006,7 +25949,7 @@
         <v>1.9248000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>7.4109999999999996</v>
       </c>
@@ -26150,7 +26093,7 @@
         <v>1.8772</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>7.4139999999999997</v>
       </c>
@@ -26294,7 +26237,7 @@
         <v>1.8274999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>7.4180000000000001</v>
       </c>
@@ -26438,7 +26381,7 @@
         <v>1.7834000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>7.4240000000000004</v>
       </c>
@@ -26582,7 +26525,7 @@
         <v>1.7375</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>8.4920000000000009</v>
       </c>
@@ -26726,7 +26669,7 @@
         <v>2.2159</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>8.4930000000000003</v>
       </c>
@@ -26870,7 +26813,7 @@
         <v>2.1575000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>8.4939999999999998</v>
       </c>
@@ -27014,7 +26957,7 @@
         <v>2.0958000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>8.4949999999999992</v>
       </c>
@@ -27158,7 +27101,7 @@
         <v>2.0392000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>8.4979999999999993</v>
       </c>
@@ -27302,7 +27245,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>8.5020000000000007</v>
       </c>
@@ -27446,7 +27389,7 @@
         <v>1.9206000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>8.5079999999999991</v>
       </c>
@@ -27590,7 +27533,7 @@
         <v>1.8681000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>11.536</v>
       </c>
@@ -27734,7 +27677,7 @@
         <v>2.6629999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>11.537000000000001</v>
       </c>
@@ -27878,7 +27821,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>11.542</v>
       </c>
@@ -28022,7 +27965,7 @@
         <v>2.3929999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>11.545999999999999</v>
       </c>
@@ -28166,7 +28109,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>11.532999999999999</v>
       </c>
@@ -28310,7 +28253,7 @@
         <v>2.2149999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>11.561999999999999</v>
       </c>
@@ -28454,7 +28397,7 @@
         <v>2.1280000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>18.542000000000002</v>
       </c>
@@ -28598,7 +28541,7 @@
         <v>3.0539999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>18.544</v>
       </c>
@@ -28742,7 +28685,7 @@
         <v>2.911</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>18.547999999999998</v>
       </c>
@@ -28886,7 +28829,7 @@
         <v>2.7839999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>18.550999999999998</v>
       </c>
@@ -29030,7 +28973,7 @@
         <v>2.6589999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>18.559000000000001</v>
       </c>
@@ -29174,7 +29117,7 @@
         <v>2.5419999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>18.57</v>
       </c>
@@ -29318,7 +29261,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>18.585000000000001</v>
       </c>
@@ -29477,9 +29420,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>4.0775874274387613E-2</v>
       </c>
@@ -29487,7 +29430,7 @@
         <v>269.64318511963302</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7.8356686165147529E-2</v>
       </c>
@@ -29495,7 +29438,7 @@
         <v>262.00130236596402</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.10636557891682254</v>
       </c>
@@ -29503,7 +29446,7 @@
         <v>256.53937987343602</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.12627995151014915</v>
       </c>
@@ -29511,7 +29454,7 @@
         <v>252.17144479136999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.13907032302335606</v>
       </c>
@@ -29519,7 +29462,7 @@
         <v>247.81152426908801</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.16652314051620201</v>
       </c>
@@ -29527,7 +29470,7 @@
         <v>234.74378454191699</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.17817026128727032</v>
       </c>
@@ -29535,7 +29478,7 @@
         <v>230.38386401963501</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.18387259980244294</v>
       </c>
@@ -29543,7 +29486,7 @@
         <v>226.03195805713699</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.19504312905448751</v>
       </c>
@@ -29551,7 +29494,7 @@
         <v>217.32814613214001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.20591199981246619</v>
       </c>
@@ -29559,7 +29502,7 @@
         <v>212.968225609857</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.21123710620066591</v>
       </c>
@@ -29567,7 +29510,7 @@
         <v>206.44437394600101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.22932544647935366</v>
       </c>
@@ -29575,7 +29518,7 @@
         <v>196.64256733065</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.24900791451437684</v>
       </c>
@@ -29583,7 +29526,7 @@
         <v>202.040373344909</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.26998254423205381</v>
       </c>
@@ -29591,7 +29534,7 @@
         <v>209.60611778063401</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.2654233980266707</v>
       </c>
@@ -29599,7 +29542,7 @@
         <v>215.04399659381201</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.27224096074934984</v>
       </c>
@@ -29607,7 +29550,7 @@
         <v>221.547811858209</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.27671613109853682</v>
       </c>
@@ -29615,7 +29558,7 @@
         <v>224.797715850461</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.28550336419818068</v>
       </c>
@@ -29623,7 +29566,7 @@
         <v>231.297523834966</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.2961916436392345</v>
       </c>
@@ -29631,7 +29574,7 @@
         <v>235.621378838222</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.30860291866516903</v>
       </c>
@@ -29639,7 +29582,7 @@
         <v>242.113172262944</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.31663674325714491</v>
       </c>
@@ -29647,7 +29590,7 @@
         <v>246.441034546092</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.33215700964059619</v>
       </c>
@@ -29655,7 +29598,7 @@
         <v>248.58092200831501</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.34334231492430106</v>
       </c>
@@ -29663,7 +29606,7 @@
         <v>258.33063398507198</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.35059333243870128</v>
       </c>
@@ -29671,7 +29614,7 @@
         <v>262.65849626822001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.35768596294961891</v>
       </c>
@@ -29679,7 +29622,7 @@
         <v>265.90038570068901</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.36117449601146467</v>
       </c>
@@ -29687,7 +29630,7 @@
         <v>270.23626254362</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.36633681887053621</v>
       </c>
@@ -29695,7 +29638,7 @@
         <v>272.39618640530199</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.3697322641263695</v>
       </c>
@@ -29703,7 +29646,7 @@
         <v>275.64609039755499</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.37475774746673002</v>
       </c>
@@ -29711,7 +29654,7 @@
         <v>277.80601425923697</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.38457206184255815</v>
       </c>
@@ -29719,7 +29662,7 @@
         <v>279.95391628124401</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.39408303074749085</v>
       </c>
@@ -29727,7 +29670,7 @@
         <v>288.61765540732301</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.40178713334628252</v>
       </c>
@@ -29735,7 +29678,7 @@
         <v>292.94151041057899</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.41077733906176578</v>
       </c>
@@ -29743,7 +29686,7 @@
         <v>292.91746673122799</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.41662217782905875</v>
       </c>
@@ -29751,7 +29694,7 @@
         <v>300.50324756641203</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.42093027231234614</v>
       </c>
@@ -29759,7 +29702,7 @@
         <v>304.83511712945102</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.42797075263006773</v>
       </c>
@@ -29767,7 +29710,7 @@
         <v>310.24494498338601</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.43754462284357415</v>
       </c>
@@ -29775,7 +29718,7 @@
         <v>316.73273112821602</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.44549933705455752</v>
       </c>
@@ -29783,7 +29726,7 @@
         <v>323.224524552937</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.44939290996862896</v>
       </c>
@@ -29791,7 +29734,7 @@
         <v>330.81431266801297</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.45701828906663239</v>
       </c>
@@ -29799,7 +29742,7 @@
         <v>337.30610609273498</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.46565186528906</v>
       </c>
@@ -29807,7 +29750,7 @@
         <v>342.70791938688598</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.47518862224425584</v>
       </c>
@@ -29815,7 +29758,7 @@
         <v>345.93377969978701</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.4843909344130039</v>
       </c>
@@ -29823,7 +29766,7 @@
         <v>351.33158571404698</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.49327609160670688</v>
       </c>
@@ -29831,7 +29774,7 @@
         <v>354.55744602694801</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.50707914380920449</v>
       </c>
@@ -29839,7 +29782,7 @@
         <v>362.10716134310599</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.5101583399609565</v>
       </c>
@@ -29847,7 +29790,7 @@
         <v>365.35305805546699</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.51719567293302693</v>
       </c>
@@ -29855,7 +29798,7 @@
         <v>365.325007096224</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.53068066889261378</v>
       </c>
@@ -29863,7 +29806,7 @@
         <v>366.354878028418</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.52015015227707284</v>
       </c>
@@ -29871,7 +29814,7 @@
         <v>371.82882236062102</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.52112695966864042</v>
       </c>
@@ -29879,7 +29822,7 @@
         <v>379.42662503548098</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.52403366539742313</v>
       </c>
@@ -29887,7 +29830,7 @@
         <v>388.102386001235</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.52785482319818222</v>
       </c>
@@ -29895,7 +29838,7 @@
         <v>392.43024828438303</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.52880054526992226</v>
       </c>
@@ -29917,9 +29860,9 @@
       <selection activeCell="Y6" sqref="Y6:Z39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -29927,7 +29870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4.0775874274387613E-2</v>
       </c>
@@ -29938,7 +29881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7.8356686165147529E-2</v>
       </c>
@@ -29946,7 +29889,7 @@
         <v>262.00130236596402</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.10636557891682254</v>
       </c>
@@ -29978,7 +29921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.12627995151014915</v>
       </c>
@@ -29986,7 +29929,7 @@
         <v>252.17144479136999</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.13907032302335606</v>
       </c>
@@ -30042,7 +29985,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.16652314051620201</v>
       </c>
@@ -30098,7 +30041,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.17817026128727032</v>
       </c>
@@ -30154,7 +30097,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.18387259980244294</v>
       </c>
@@ -30210,7 +30153,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.19504312905448751</v>
       </c>
@@ -30266,7 +30209,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.20591199981246619</v>
       </c>
@@ -30322,7 +30265,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.21123710620066591</v>
       </c>
@@ -30378,7 +30321,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.22932544647935366</v>
       </c>
@@ -30434,7 +30377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.24900791451437684</v>
       </c>
@@ -30490,7 +30433,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.26998254423205381</v>
       </c>
@@ -30546,7 +30489,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.2654233980266707</v>
       </c>
@@ -30602,7 +30545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.27224096074934984</v>
       </c>
@@ -30658,7 +30601,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.27671613109853682</v>
       </c>
@@ -30714,7 +30657,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.28550336419818068</v>
       </c>
@@ -30770,7 +30713,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.2961916436392345</v>
       </c>
@@ -30826,7 +30769,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.30860291866516903</v>
       </c>
@@ -30882,7 +30825,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.31663674325714491</v>
       </c>
@@ -30938,7 +30881,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.33215700964059619</v>
       </c>
@@ -30994,7 +30937,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.34334231492430106</v>
       </c>
@@ -31050,7 +30993,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.35059333243870128</v>
       </c>
@@ -31106,7 +31049,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.35768596294961891</v>
       </c>
@@ -31162,7 +31105,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.36117449601146467</v>
       </c>
@@ -31218,7 +31161,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.36633681887053621</v>
       </c>
@@ -31274,7 +31217,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.3697322641263695</v>
       </c>
@@ -31330,7 +31273,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.37475774746673002</v>
       </c>
@@ -31386,7 +31329,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.38457206184255815</v>
       </c>
@@ -31442,7 +31385,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.39408303074749085</v>
       </c>
@@ -31498,7 +31441,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.40178713334628252</v>
       </c>
@@ -31554,7 +31497,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.41077733906176578</v>
       </c>
@@ -31604,7 +31547,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.41662217782905875</v>
       </c>
@@ -31654,7 +31597,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.42093027231234614</v>
       </c>
@@ -31704,7 +31647,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.42797075263006773</v>
       </c>
@@ -31754,7 +31697,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.43754462284357415</v>
       </c>
@@ -31798,7 +31741,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.44549933705455752</v>
       </c>
@@ -31842,7 +31785,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.44939290996862896</v>
       </c>
@@ -31880,7 +31823,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.45701828906663239</v>
       </c>
@@ -31918,7 +31861,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.46565186528906</v>
       </c>
@@ -31956,7 +31899,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.47518862224425584</v>
       </c>
@@ -31988,7 +31931,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.4843909344130039</v>
       </c>
@@ -32020,7 +31963,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.49327609160670688</v>
       </c>
@@ -32040,7 +31983,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.50707914380920449</v>
       </c>
@@ -32060,7 +32003,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.5101583399609565</v>
       </c>
@@ -32080,7 +32023,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.51719567293302693</v>
       </c>
@@ -32100,7 +32043,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.53068066889261378</v>
       </c>
@@ -32120,7 +32063,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.52015015227707284</v>
       </c>
@@ -32140,7 +32083,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.52112695966864042</v>
       </c>
@@ -32160,7 +32103,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.52403366539742313</v>
       </c>
@@ -32180,7 +32123,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.52785482319818222</v>
       </c>
@@ -32200,7 +32143,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.52880054526992226</v>
       </c>
@@ -32220,7 +32163,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D55">
         <v>0.11340799999999999</v>
       </c>
@@ -32234,7 +32177,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D56">
         <v>0.109848</v>
       </c>
@@ -32248,7 +32191,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D57">
         <v>0.106208</v>
       </c>
@@ -32262,7 +32205,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D58">
         <v>0.102488</v>
       </c>
@@ -32276,7 +32219,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D59">
         <v>9.8688200000000004E-2</v>
       </c>
@@ -32290,7 +32233,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D60">
         <v>9.4808199999999995E-2</v>
       </c>
@@ -32304,7 +32247,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D61">
         <v>9.0848200000000004E-2</v>
       </c>
@@ -32318,7 +32261,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D62">
         <v>8.6808300000000005E-2</v>
       </c>
@@ -32332,7 +32275,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D63">
         <v>8.2688300000000006E-2</v>
       </c>
@@ -32346,7 +32289,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D64">
         <v>7.84884E-2</v>
       </c>
@@ -32360,7 +32303,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D65">
         <v>7.4208399999999994E-2</v>
       </c>
@@ -32374,7 +32317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D66">
         <v>6.9848499999999994E-2</v>
       </c>
@@ -32388,7 +32331,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D67">
         <v>6.5408599999999997E-2</v>
       </c>
@@ -32402,7 +32345,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D68">
         <v>6.0888699999999997E-2</v>
       </c>
@@ -32416,7 +32359,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D69">
         <v>5.62888E-2</v>
       </c>
@@ -32430,7 +32373,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D70">
         <v>5.1609000000000002E-2</v>
       </c>
@@ -32444,7 +32387,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D71">
         <v>4.6849099999999998E-2</v>
       </c>
@@ -32458,7 +32401,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>4.2009299999999999E-2</v>
       </c>
@@ -32472,7 +32415,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>3.7089499999999997E-2</v>
       </c>
@@ -32486,7 +32429,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>3.2089699999999999E-2</v>
       </c>
@@ -32500,7 +32443,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>2.7009999999999999E-2</v>
       </c>
@@ -32514,7 +32457,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>2.18503E-2</v>
       </c>
@@ -32528,7 +32471,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>1.6610699999999999E-2</v>
       </c>
@@ -32542,7 +32485,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>1.12911E-2</v>
       </c>
@@ -32556,7 +32499,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>5.8917500000000003E-3</v>
       </c>
@@ -32570,7 +32513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>4.0983099999999999E-4</v>
       </c>
@@ -32584,7 +32527,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G81">
         <v>0.38925599999999999</v>
       </c>
@@ -32592,7 +32535,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G82">
         <v>0.39147399999999999</v>
       </c>
@@ -32600,7 +32543,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G83">
         <v>0.39369999999999999</v>
       </c>
@@ -32608,7 +32551,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G84">
         <v>0.39593400000000001</v>
       </c>
@@ -32616,7 +32559,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G85">
         <v>0.39817599999999997</v>
       </c>
@@ -32624,7 +32567,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G86">
         <v>0.39817599999999997</v>
       </c>
@@ -32632,7 +32575,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G87">
         <v>0.400426</v>
       </c>
@@ -32640,7 +32583,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G88">
         <v>0.40268399999999999</v>
       </c>
@@ -32648,7 +32591,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G89">
         <v>0.404949</v>
       </c>
@@ -32656,7 +32599,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G90">
         <v>0.407223</v>
       </c>
@@ -32664,7 +32607,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G91">
         <v>0.40950500000000001</v>
       </c>
@@ -32672,7 +32615,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G92">
         <v>0.41179500000000002</v>
       </c>
@@ -32680,7 +32623,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G93">
         <v>0.41409299999999999</v>
       </c>
@@ -32688,7 +32631,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G94">
         <v>0.41639900000000002</v>
       </c>
@@ -32696,7 +32639,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G95">
         <v>0.418713</v>
       </c>
@@ -32704,7 +32647,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G96">
         <v>0.42103499999999999</v>
       </c>
@@ -32712,7 +32655,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G97">
         <v>0.42336499999999999</v>
       </c>
@@ -32720,7 +32663,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G98">
         <v>0.425703</v>
       </c>
@@ -32728,7 +32671,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G99">
         <v>0.42804900000000001</v>
       </c>
@@ -32746,13 +32689,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782205F6-3FFD-4338-A2A5-04E9D62A3720}">
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -32760,7 +32703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -32774,7 +32717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4.0775874274387613E-2</v>
       </c>
@@ -32788,7 +32731,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7.8356686165147529E-2</v>
       </c>
@@ -32802,7 +32745,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.10636557891682254</v>
       </c>
@@ -32816,7 +32759,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.12627995151014915</v>
       </c>
@@ -32830,7 +32773,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.13907032302335606</v>
       </c>
@@ -32844,7 +32787,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.16652314051620201</v>
       </c>
@@ -32858,7 +32801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.17817026128727032</v>
       </c>
@@ -32872,7 +32815,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.18387259980244294</v>
       </c>
@@ -32886,7 +32829,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.19504312905448751</v>
       </c>
@@ -32900,7 +32843,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.20591199981246619</v>
       </c>
@@ -32914,7 +32857,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.21123710620066591</v>
       </c>
@@ -32928,7 +32871,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.22932544647935366</v>
       </c>
@@ -32942,7 +32885,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.24900791451437684</v>
       </c>
@@ -32956,7 +32899,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.26998254423205381</v>
       </c>
@@ -32970,7 +32913,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.2654233980266707</v>
       </c>
@@ -32984,7 +32927,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.27224096074934984</v>
       </c>
@@ -32998,7 +32941,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.27671613109853682</v>
       </c>
@@ -33012,7 +32955,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.28550336419818068</v>
       </c>
@@ -33026,7 +32969,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.2961916436392345</v>
       </c>
@@ -33040,7 +32983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.30860291866516903</v>
       </c>
@@ -33054,7 +32997,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.31663674325714491</v>
       </c>
@@ -33068,7 +33011,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.33215700964059619</v>
       </c>
@@ -33082,7 +33025,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.34334231492430106</v>
       </c>
@@ -33096,7 +33039,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.35059333243870128</v>
       </c>
@@ -33110,7 +33053,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.35768596294961891</v>
       </c>
@@ -33124,7 +33067,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.36117449601146467</v>
       </c>
@@ -33138,7 +33081,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.36633681887053621</v>
       </c>
@@ -33152,7 +33095,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.3697322641263695</v>
       </c>
@@ -33166,7 +33109,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.37475774746673002</v>
       </c>
@@ -33180,7 +33123,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.38457206184255815</v>
       </c>
@@ -33194,7 +33137,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.39408303074749085</v>
       </c>
@@ -33208,7 +33151,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.40178713334628252</v>
       </c>
@@ -33222,7 +33165,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.41077733906176578</v>
       </c>
@@ -33236,7 +33179,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.41662217782905875</v>
       </c>
@@ -33250,7 +33193,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.42093027231234614</v>
       </c>
@@ -33264,7 +33207,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.42797075263006773</v>
       </c>
@@ -33278,7 +33221,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.43754462284357415</v>
       </c>
@@ -33292,7 +33235,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.44549933705455752</v>
       </c>
@@ -33306,7 +33249,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.44939290996862896</v>
       </c>
@@ -33320,7 +33263,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.45701828906663239</v>
       </c>
@@ -33334,7 +33277,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.46565186528906</v>
       </c>
@@ -33348,7 +33291,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.47518862224425584</v>
       </c>
@@ -33362,7 +33305,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.4843909344130039</v>
       </c>
@@ -33376,7 +33319,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.49327609160670688</v>
       </c>
@@ -33390,7 +33333,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.50707914380920449</v>
       </c>
@@ -33404,7 +33347,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.5101583399609565</v>
       </c>
@@ -33418,7 +33361,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.51719567293302693</v>
       </c>
@@ -33432,7 +33375,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.53068066889261378</v>
       </c>
@@ -33446,7 +33389,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.52015015227707284</v>
       </c>
@@ -33460,7 +33403,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.52112695966864042</v>
       </c>
@@ -33474,7 +33417,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.52403366539742313</v>
       </c>
@@ -33488,7 +33431,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.52785482319818222</v>
       </c>
@@ -33502,7 +33445,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.52880054526992226</v>
       </c>
@@ -33516,7 +33459,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D56">
         <v>0.19391800000000001</v>
       </c>
@@ -33524,7 +33467,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D57">
         <v>0.195525</v>
       </c>
@@ -33532,7 +33475,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D58">
         <v>0.19713800000000001</v>
       </c>
@@ -33540,7 +33483,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D59">
         <v>0.19875699999999999</v>
       </c>
@@ -33548,7 +33491,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D60">
         <v>0.200382</v>
       </c>
@@ -33556,7 +33499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D61">
         <v>0.202013</v>
       </c>
@@ -33564,7 +33507,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D62">
         <v>0.20365</v>
       </c>
@@ -33572,7 +33515,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D63">
         <v>0.205293</v>
       </c>
@@ -33580,7 +33523,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D64">
         <v>0.20694199999999999</v>
       </c>
@@ -33588,7 +33531,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D65">
         <v>0.208597</v>
       </c>
@@ -33596,7 +33539,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66">
         <v>0.210258</v>
       </c>
@@ -33604,7 +33547,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D67">
         <v>0.211925</v>
       </c>
@@ -33612,7 +33555,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D68">
         <v>0.21359800000000001</v>
       </c>
@@ -33620,7 +33563,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D69">
         <v>0.215278</v>
       </c>
@@ -33628,7 +33571,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D70">
         <v>0.21696299999999999</v>
       </c>
@@ -33636,7 +33579,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D71">
         <v>0.21865399999999999</v>
       </c>
@@ -33644,7 +33587,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>0.22035099999999999</v>
       </c>
@@ -33652,7 +33595,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>0.222054</v>
       </c>
@@ -33660,7 +33603,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>0.22376299999999999</v>
       </c>
@@ -33668,7 +33611,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>0.22547800000000001</v>
       </c>
@@ -33676,7 +33619,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>0.22719900000000001</v>
       </c>
@@ -33684,7 +33627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>0.22892599999999999</v>
       </c>
@@ -33692,7 +33635,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>0.230659</v>
       </c>
@@ -33700,7 +33643,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>0.23239799999999999</v>
       </c>
@@ -33708,7 +33651,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>0.23414299999999999</v>
       </c>
@@ -33716,7 +33659,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>0.23589399999999999</v>
       </c>
@@ -33724,7 +33667,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>0.237651</v>
       </c>
@@ -33732,7 +33675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>0.240901</v>
       </c>
@@ -33740,7 +33683,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>0.24249499999999999</v>
       </c>
@@ -33748,7 +33691,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D85">
         <v>0.24409700000000001</v>
       </c>
@@ -33756,7 +33699,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>0.24570700000000001</v>
       </c>
@@ -33764,7 +33707,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>0.24732499999999999</v>
       </c>
@@ -33772,7 +33715,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>0.24895100000000001</v>
       </c>
@@ -33780,7 +33723,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>0.250585</v>
       </c>
@@ -33788,7 +33731,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>0.25222800000000001</v>
       </c>
@@ -33796,7 +33739,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.25387799999999999</v>
       </c>
@@ -33804,7 +33747,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.25553599999999999</v>
       </c>
@@ -33812,7 +33755,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.25720199999999999</v>
       </c>
@@ -33820,7 +33763,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.258876</v>
       </c>
@@ -33828,7 +33771,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.26055800000000001</v>
       </c>
@@ -33836,7 +33779,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.26224799999999998</v>
       </c>
@@ -33844,7 +33787,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.26394600000000001</v>
       </c>
@@ -33852,7 +33795,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.265652</v>
       </c>
@@ -33860,7 +33803,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.26736599999999999</v>
       </c>
@@ -33868,7 +33811,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.26908799999999999</v>
       </c>
@@ -33876,7 +33819,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.270818</v>
       </c>
@@ -33884,7 +33827,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.27255600000000002</v>
       </c>
@@ -33892,7 +33835,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.27430199999999999</v>
       </c>
@@ -33900,7 +33843,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.27605600000000002</v>
       </c>
@@ -33908,7 +33851,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.27781800000000001</v>
       </c>
@@ -33916,7 +33859,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.279588</v>
       </c>
@@ -33924,7 +33867,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.281366</v>
       </c>
@@ -33932,7 +33875,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.28315200000000001</v>
       </c>
@@ -33940,7 +33883,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.28494599999999998</v>
       </c>
@@ -33948,7 +33891,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.28855799999999998</v>
       </c>
@@ -33956,7 +33899,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.29220200000000002</v>
       </c>
@@ -33964,7 +33907,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.29587799999999997</v>
       </c>
@@ -33972,7 +33915,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.29772799999999999</v>
       </c>
@@ -33980,7 +33923,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.30332599999999998</v>
       </c>
@@ -33988,7 +33931,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.30520799999999998</v>
       </c>
@@ -33996,7 +33939,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.30709799999999998</v>
       </c>
@@ -34004,7 +33947,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.30899599999999999</v>
       </c>
@@ -34012,7 +33955,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.31090200000000001</v>
       </c>
@@ -34020,7 +33963,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.31281500000000001</v>
       </c>
@@ -34028,7 +33971,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.31473699999999999</v>
       </c>
@@ -34036,7 +33979,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.31860500000000003</v>
       </c>
@@ -34044,7 +33987,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.32055099999999997</v>
       </c>
@@ -34052,7 +33995,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.32250499999999999</v>
       </c>
@@ -34060,7 +34003,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.32446700000000001</v>
       </c>
@@ -34068,7 +34011,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.32643699999999998</v>
       </c>
@@ -34076,7 +34019,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.32841500000000001</v>
       </c>
@@ -34084,7 +34027,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.330401</v>
       </c>
@@ -34092,7 +34035,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.332395</v>
       </c>
@@ -34100,7 +34043,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.334397</v>
       </c>
@@ -34108,7 +34051,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.33640700000000001</v>
       </c>
@@ -34116,7 +34059,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.33842499999999998</v>
       </c>
@@ -34124,7 +34067,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.340451</v>
       </c>
@@ -34132,7 +34075,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.34248499999999998</v>
       </c>
@@ -34140,7 +34083,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.34452700000000003</v>
       </c>
@@ -34148,7 +34091,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.34657700000000002</v>
       </c>
@@ -34156,7 +34099,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.34863499999999997</v>
       </c>
@@ -34164,7 +34107,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>0.35070099999999998</v>
       </c>
@@ -34172,7 +34115,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.35277500000000001</v>
       </c>
@@ -34180,7 +34123,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.35485699999999998</v>
       </c>
@@ -34188,7 +34131,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.35694700000000001</v>
       </c>
@@ -34196,7 +34139,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.359045</v>
       </c>
@@ -34204,7 +34147,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.361151</v>
       </c>
@@ -34212,7 +34155,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.363265</v>
       </c>
@@ -34220,7 +34163,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.36538700000000002</v>
       </c>
@@ -34228,7 +34171,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.36751699999999998</v>
       </c>
@@ -34236,7 +34179,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.36965399999999998</v>
       </c>
@@ -34244,7 +34187,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.37180000000000002</v>
       </c>
@@ -34252,7 +34195,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.37395400000000001</v>
       </c>
@@ -34260,7 +34203,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.37611600000000001</v>
       </c>
@@ -34268,7 +34211,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.37828600000000001</v>
       </c>
@@ -34276,7 +34219,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.38046400000000002</v>
       </c>
@@ -34284,7 +34227,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.38264999999999999</v>
       </c>
@@ -34292,7 +34235,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.38484400000000002</v>
       </c>
@@ -34300,7 +34243,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.387046</v>
       </c>
@@ -34308,7 +34251,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.38925599999999999</v>
       </c>
@@ -34316,7 +34259,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.39147399999999999</v>
       </c>
@@ -34324,7 +34267,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.39369999999999999</v>
       </c>
@@ -34332,7 +34275,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.39593400000000001</v>
       </c>
@@ -34340,7 +34283,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.39817599999999997</v>
       </c>
@@ -34348,7 +34291,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>0.42812499999999998</v>
       </c>
@@ -34356,7 +34299,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.429288</v>
       </c>
@@ -34364,7 +34307,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>0.430448</v>
       </c>
@@ -34372,7 +34315,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.43160700000000002</v>
       </c>
@@ -34380,7 +34323,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.43276500000000001</v>
       </c>
@@ -34388,7 +34331,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.43391999999999997</v>
       </c>
@@ -34396,7 +34339,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.43507400000000002</v>
       </c>
@@ -34404,7 +34347,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.436226</v>
       </c>
@@ -34412,7 +34355,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.43737599999999999</v>
       </c>
@@ -34420,7 +34363,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.43852400000000002</v>
       </c>
@@ -34428,7 +34371,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.43967000000000001</v>
       </c>
@@ -34436,7 +34379,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.44081500000000001</v>
       </c>
@@ -34444,7 +34387,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.44195800000000002</v>
       </c>
@@ -34452,7 +34395,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173">
         <v>0.44309900000000002</v>
       </c>
@@ -34460,7 +34403,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174">
         <v>0.44423800000000002</v>
       </c>
@@ -34468,7 +34411,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175">
         <v>0.44537599999999999</v>
       </c>
@@ -34476,7 +34419,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.44651099999999999</v>
       </c>
@@ -34484,7 +34427,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.44764500000000002</v>
       </c>
@@ -34492,7 +34435,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.44877699999999998</v>
       </c>
@@ -34500,7 +34443,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.449907</v>
       </c>
@@ -34508,7 +34451,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180">
         <v>0.45103599999999999</v>
       </c>
@@ -34516,7 +34459,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.45216200000000001</v>
       </c>
@@ -34524,7 +34467,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.453287</v>
       </c>
@@ -34532,7 +34475,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.45440999999999998</v>
       </c>
@@ -34540,7 +34483,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.45665099999999997</v>
       </c>
@@ -34548,7 +34491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.45743899999999998</v>
       </c>
@@ -34556,7 +34499,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.45776899999999998</v>
       </c>
@@ -34564,7 +34507,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187">
         <v>0.45888400000000001</v>
       </c>
@@ -34572,7 +34515,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.45932200000000001</v>
       </c>
@@ -34580,7 +34523,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.46312999999999999</v>
       </c>
@@ -34588,7 +34531,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.465055</v>
       </c>
@@ -34596,7 +34539,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.46699299999999999</v>
       </c>
@@ -34604,7 +34547,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192">
         <v>0.46894599999999997</v>
       </c>
@@ -34612,7 +34555,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193">
         <v>0.47091300000000003</v>
       </c>
@@ -34620,7 +34563,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194">
         <v>0.47289399999999998</v>
       </c>
@@ -34628,7 +34571,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.47488900000000001</v>
       </c>
@@ -34636,7 +34579,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196">
         <v>0.47689799999999999</v>
       </c>
@@ -34644,7 +34587,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197">
         <v>0.47892000000000001</v>
       </c>
@@ -34652,7 +34595,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198">
         <v>0.48095700000000002</v>
       </c>
@@ -34660,7 +34603,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.48300799999999999</v>
       </c>
@@ -34668,7 +34611,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.48507299999999998</v>
       </c>
@@ -34676,7 +34619,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201">
         <v>0.48715199999999997</v>
       </c>
@@ -34684,7 +34627,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202">
         <v>0.48924400000000001</v>
       </c>
@@ -34692,7 +34635,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203">
         <v>0.49135099999999998</v>
       </c>
@@ -34700,7 +34643,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204">
         <v>0.49347200000000002</v>
       </c>
@@ -34708,7 +34651,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205">
         <v>0.49560700000000002</v>
       </c>
@@ -34716,7 +34659,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206">
         <v>0.497755</v>
       </c>
@@ -34724,7 +34667,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207">
         <v>0.49991799999999997</v>
       </c>
@@ -34732,7 +34675,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208">
         <v>0.50209499999999996</v>
       </c>
@@ -34740,7 +34683,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209">
         <v>0.50428499999999998</v>
       </c>
@@ -34748,7 +34691,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210">
         <v>0.50649</v>
       </c>
@@ -34756,7 +34699,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211">
         <v>0.50870899999999997</v>
       </c>
@@ -34764,7 +34707,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212">
         <v>0.51094099999999998</v>
       </c>
@@ -34772,7 +34715,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213">
         <v>0.51318799999999998</v>
       </c>
@@ -34780,7 +34723,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214">
         <v>0.51544800000000002</v>
       </c>
@@ -34788,7 +34731,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215">
         <v>0.51772200000000002</v>
       </c>
@@ -34796,7 +34739,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216">
         <v>0.520011</v>
       </c>
@@ -34804,7 +34747,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D217">
         <v>0.52231300000000003</v>
       </c>
@@ -34812,7 +34755,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D218">
         <v>0.529914</v>
       </c>
@@ -34820,7 +34763,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D219">
         <v>0.53017800000000004</v>
       </c>
@@ -34828,7 +34771,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D220">
         <v>0.53045299999999995</v>
       </c>
@@ -34836,7 +34779,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D221">
         <v>0.53073800000000004</v>
       </c>
@@ -34844,7 +34787,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D222">
         <v>0.53103299999999998</v>
       </c>
@@ -34852,7 +34795,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D223">
         <v>0.53133799999999998</v>
       </c>
@@ -34860,7 +34803,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D224">
         <v>0.53165300000000004</v>
       </c>
@@ -34868,7 +34811,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D225">
         <v>0.53197700000000003</v>
       </c>
@@ -34876,7 +34819,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D226">
         <v>0.53231200000000001</v>
       </c>
@@ -34884,7 +34827,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D227">
         <v>0.53265700000000005</v>
       </c>
@@ -34892,7 +34835,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D228">
         <v>0.53301200000000004</v>
       </c>
@@ -34900,7 +34843,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D229">
         <v>0.53337599999999996</v>
       </c>
@@ -34908,7 +34851,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D230">
         <v>0.53375099999999998</v>
       </c>
@@ -34916,7 +34859,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D231">
         <v>0.53413600000000006</v>
       </c>
@@ -34924,7 +34867,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D232">
         <v>0.53452999999999995</v>
       </c>
@@ -34932,7 +34875,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D233">
         <v>0.53577399999999997</v>
       </c>
@@ -34940,7 +34883,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D234">
         <v>0.53620900000000005</v>
       </c>
@@ -34948,7 +34891,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D235">
         <v>0.53665300000000005</v>
       </c>
@@ -34956,7 +34899,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D236">
         <v>0.53710800000000003</v>
       </c>
@@ -34964,7 +34907,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D237">
         <v>0.53757200000000005</v>
       </c>
@@ -34972,7 +34915,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D238">
         <v>0.53804700000000005</v>
       </c>
@@ -34980,7 +34923,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D239">
         <v>0.53853099999999998</v>
       </c>
@@ -34988,7 +34931,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D240">
         <v>0.53952999999999995</v>
       </c>
@@ -34996,7 +34939,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D241">
         <v>0.54004399999999997</v>
       </c>
@@ -35004,7 +34947,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D242">
         <v>0.54056800000000005</v>
       </c>
@@ -35012,7 +34955,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D243">
         <v>0.54164699999999999</v>
       </c>
@@ -35020,7 +34963,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D244">
         <v>0.54220100000000004</v>
       </c>
@@ -35028,7 +34971,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D245">
         <v>0.54276500000000005</v>
       </c>
@@ -35046,11 +34989,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35283,27 +35227,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC3A44B-2E43-454A-BBA7-EBDF5C93942F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C69340E-2751-479C-A826-08E03A5B21D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35328,9 +35262,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C69340E-2751-479C-A826-08E03A5B21D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC3A44B-2E43-454A-BBA7-EBDF5C93942F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>